--- a/schedule/temp.xlsx
+++ b/schedule/temp.xlsx
@@ -4,7 +4,7 @@
   <x:fileVersion appName="HCell" lastEdited="9.6" lowestEdited="9.6" rupBuild="1.3928"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="21165" windowHeight="10755"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="13965" windowHeight="12060"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="개발일정" sheetId="1" r:id="rId4"/>
@@ -14,63 +14,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <x:si>
-    <x:t>키 프레임 구현</x:t>
+    <x:t>4시간</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 텍스쳐 적용</x:t>
+    <x:t>맵</x:t>
   </x:si>
   <x:si>
-    <x:t>애니메이션 정보 로드</x:t>
+    <x:t>서버</x:t>
   </x:si>
   <x:si>
-    <x:t>하루별 평균 작업 시간 오승담(평일 4~5 / 주말 6) 임보배 (6~7) 신동원(6~7)</x:t>
+    <x:t>최적화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>역할</x:t>
   </x:si>
   <x:si>
     <x:t>모델링</x:t>
   </x:si>
   <x:si>
-    <x:t>맵</x:t>
-  </x:si>
-  <x:si>
-    <x:t>역할</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버</x:t>
-  </x:si>
-  <x:si>
     <x:t>캐릭터</x:t>
   </x:si>
   <x:si>
-    <x:t>4시간</x:t>
+    <x:t>프레임 워크 제작 - 씬 생성 및 2D객체 생성 범위(90)</x:t>
   </x:si>
   <x:si>
-    <x:t>인스턴싱 객체 생성</x:t>
+    <x:t>상호작용 - 기절&lt;-&gt;깨우기, 버튼 입력&lt;-&gt;스위치(26)</x:t>
   </x:si>
   <x:si>
-    <x:t>기존 게임에 적용</x:t>
+    <x:t>하루별 평균 작업 시간 오승담(평일 4~5 / 주말 6) 임보배 (4~5 / 3월~5월 6) 신동원(6~7)</x:t>
   </x:si>
   <x:si>
-    <x:t>애니메이션</x:t>
+    <x:t>서버 내에서 충돌 처리 구현(50)</x:t>
   </x:si>
   <x:si>
-    <x:t>광선 추적</x:t>
+    <x:t>클라이언트 별 딜레이 부여(10)</x:t>
   </x:si>
   <x:si>
-    <x:t>최적화</x:t>
+    <x:t>데드레커닝 공부 및 적용(60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 오브젝트 베이킹 및 텍스처 작업</x:t>
   </x:si>
   <x:si>
     <x:t>프레임 워크 제작과</x:t>
   </x:si>
   <x:si>
-    <x:t>객체 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 텍스처 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 매쉬 제작</x:t>
+    <x:t>프레임워크(96)</x:t>
   </x:si>
   <x:si>
     <x:t>캐릭터 애니메이션</x:t>
@@ -79,118 +70,67 @@
     <x:t>동기화 기법(165)</x:t>
   </x:si>
   <x:si>
+    <x:t>캐릭터 텍스처 제작</x:t>
+  </x:si>
+  <x:si>
     <x:t>충돌처리(70)</x:t>
   </x:si>
   <x:si>
-    <x:t>프레임워크(96)</x:t>
+    <x:t>캐릭터 매쉬 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>남은 기간 (7일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3D객체 생성(14)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1월 (14일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3월 (31일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2월 (32일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4월~5월 (52일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본적인 패킷 전송으로 이동 구현(5)</x:t>
   </x:si>
   <x:si>
     <x:t>비정상 접속에 대한 처리 구현(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 되감기 동기화 기법 적용(70)</x:t>
+    <x:t>서버 부하 테스트 프로그램 제작(40)</x:t>
   </x:si>
   <x:si>
     <x:t>서버 되감기 동기화 공부 및 분석(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>서버 부하 테스트 프로그램 제작(40)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기본적인 패킷 전송으로 이동 구현(5)</x:t>
+    <x:t>서버 되감기 동기화 기법 적용(70)</x:t>
   </x:si>
   <x:si>
     <x:t>유저 DB 제작 및 DB 저장 프로시저 작성 (6)</x:t>
   </x:si>
   <x:si>
-    <x:t>조명 및 그림자 생성</x:t>
+    <x:t>IOCP 서버 프레임워크 공부 및 작성(60)</x:t>
   </x:si>
   <x:si>
-    <x:t>기본 골격 - 씬 생성 및 쉐이더 렌더링 범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 구조물 에셋 로드 - 공장 건물,기계,선반 등</x:t>
-  </x:si>
-  <x:si>
-    <x:t>애니메이션 띄우기 및 세부 수정 - 프레임,블렌드</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">오브젝트 애니메이션 - 스위치,사이렌,탈출구  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 오브젝트 베이킹 및 텍스처 작업</x:t>
-  </x:si>
-  <x:si>
-    <x:t>클라이언트 별 딜레이 부여(10)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>데드레커닝 공부 및 적용(60)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>서버 내에서 충돌 처리 구현(50)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>상호작용 - 기절&lt;-&gt;깨우기, 버튼 입력&lt;-&gt;스위치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임 워크 제작 - 씬 생성 및 2D객체 생성 범위</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 리깅</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">달성도 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>3월~6월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>투자시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16시간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 종류</x:t>
-  </x:si>
-  <x:si>
-    <x:t>후처리(25)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 메쉬 제작</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1~2월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>세부 항목</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3~4월</x:t>
-  </x:si>
-  <x:si>
-    <x:t>7~8월</x:t>
+    <x:t>클라이언트 프레임워크 공부 및 로그인 적용(15)</x:t>
   </x:si>
   <x:si>
     <x:t>서버에서 사용할 더미 맵 데이터 익스포팅(20)</x:t>
   </x:si>
   <x:si>
-    <x:t>클라이언트 프레임워크 공부 및 로그인 적용(15)</x:t>
-  </x:si>
-  <x:si>
     <x:t>기본적인 클라 - 서버 접속 종료 구현(5)</x:t>
   </x:si>
   <x:si>
-    <x:t>IOCP 서버 프레임워크 공부 및 작성(60)</x:t>
+    <x:t>맵 오브젝트 Z브러싱 작업</x:t>
   </x:si>
   <x:si>
-    <x:t>3D객체 생성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맵 구현</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 에셋 로드 및 메쉬 생성</x:t>
+    <x:t>맵 오브젝트 UV 제작</x:t>
   </x:si>
   <x:si>
     <x:t>세부 시간(2시간 단위)</x:t>
@@ -202,56 +142,135 @@
     <x:t>게임 방 생성 시스템(15)</x:t>
   </x:si>
   <x:si>
-    <x:t>맵 오브젝트 UV 제작</x:t>
-  </x:si>
-  <x:si>
     <x:t>테스트 프로그램 제작(30)</x:t>
   </x:si>
   <x:si>
-    <x:t>맵 오브젝트 Z브러싱 작업</x:t>
+    <x:t>키 프레임 구현(105)</x:t>
   </x:si>
   <x:si>
-    <x:t>맵 구조물 오브젝트 메쉬생성 및 배치</x:t>
+    <x:t>애니메이션 정보 로드(25)</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 로직 처리 - 카메라 시점, 이동</x:t>
+    <x:t>16시간</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 바운딩 박스 생성 및 충돌 처리</x:t>
+    <x:t>3월~6월</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">타일로 된 지형 생성 </x:t>
+    <x:t>애니메이션</x:t>
   </x:si>
   <x:si>
-    <x:t>맵 구조물 텍스쳐 적용</x:t>
+    <x:t>1~2월</x:t>
   </x:si>
   <x:si>
-    <x:t>큐브 맵 생성 및 배치</x:t>
+    <x:t>7~8월</x:t>
   </x:si>
   <x:si>
-    <x:t>카메라와 플레이어 객체 생성</x:t>
+    <x:t>맵 메쉬 제작</x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터</x:t>
+    <x:t>객체 생성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 종류</x:t>
+  </x:si>
+  <x:si>
+    <x:t>광선 추적</x:t>
+  </x:si>
+  <x:si>
+    <x:t>세부 항목</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 리깅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구현</x:t>
   </x:si>
   <x:si>
     <x:t>클라이언트</x:t>
   </x:si>
   <x:si>
-    <x:t>RTX ON/OFF 구현</x:t>
+    <x:t>3~4월</x:t>
   </x:si>
   <x:si>
-    <x:t>성능 측정 및 최적화</x:t>
+    <x:t xml:space="preserve">달성도 </x:t>
   </x:si>
   <x:si>
-    <x:t>캐릭터 오브젝트 생성</x:t>
+    <x:t>투자시간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>후처리(25)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구조물 오브젝트 메쉬생성 및 배치(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 로직 처리 - 카메라 시점, 이동(20)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 바운딩 박스 생성 및 충돌 처리(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3월~5월 (+1.5h)
+6월~8월 (100일)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인스턴싱 객체 생성(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기존 게임에 적용(168)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>성능 측정 및 최적화(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>큐브 맵 생성 및 배치(18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구조물 텍스쳐 적용(60)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조명 및 그림자 생성(126)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RTX ON/OFF 구현(168)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카메라와 플레이어 객체 생성(24)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기본 골격 - 씬 생성 및 쉐이더 렌더링 범위(12)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맵 구조물 에셋 로드 - 공장 건물,기계,선반 등(18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>애니메이션 띄우기 및 세부 수정 - 프레임,블렌드(42)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">오브젝트 애니메이션 - 스위치,사이렌,탈출구 (60) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 에셋 로드 및 메쉬 생성(30)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인스턴싱 객체 생성(18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>타일로 된 지형 생성(18)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 오브젝트 생성(15)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 텍스쳐 적용(15)</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="28">
+  <x:fonts count="29">
     <x:font>
       <x:name val="돋움"/>
       <x:sz val="11"/>
@@ -297,48 +316,17 @@
       <x:sz val="11"/>
       <x:color rgb="ffff0000"/>
     </x:font>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-          <x:b val="1"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="fffa7d00"/>
-          <x:b val="1"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c0006"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="11"/>
-          <x:color rgb="ff9c0006"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="fffa7d00"/>
+      <x:b val="1"/>
+    </x:font>
+    <x:font>
+      <x:name val="맑은 고딕"/>
+      <x:sz val="11"/>
+      <x:color rgb="ff9c0006"/>
+    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -381,12 +369,28 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ffffffff"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ffffffff"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -407,12 +411,28 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="11"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
@@ -663,6 +683,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="돋움"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffff0000"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="돋움"/>
+          <x:sz val="10"/>
+          <x:color rgb="ffff0000"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="39">
     <x:fill>
@@ -894,7 +934,7 @@
       </x:patternFill>
     </x:fill>
   </x:fills>
-  <x:borders count="53">
+  <x:borders count="52">
     <x:border>
       <x:left>
         <x:color indexed="64"/>
@@ -1623,20 +1663,6 @@
         <x:color indexed="64"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left>
-        <x:color indexed="64"/>
-      </x:left>
-      <x:right>
-        <x:color indexed="64"/>
-      </x:right>
-      <x:top>
-        <x:color indexed="64"/>
-      </x:top>
-      <x:bottom style="medium">
-        <x:color indexed="64"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="83">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1889,7 +1915,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="111">
+  <x:cellXfs count="122">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2411,19 +2437,6 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -2462,6 +2475,24 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="left" vertical="center"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="23" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -2592,27 +2623,175 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1">
-      <x:alignment horizontal="general" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="23" fillId="33" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:alignment horizontal="left" vertical="center"/>
-    </x:xf>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="28" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="28" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="74" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="20" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="20" fontId="23" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:cellXfs>
   <x:cellStyles count="83">
     <x:cellStyle name="20% - 강조색1" xfId="1"/>
@@ -3187,7 +3366,9 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:p/>
+        <a:p>
+          <a:pPr algn="l"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -3232,7 +3413,9 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:p/>
+        <a:p>
+          <a:pPr algn="l"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -3277,7 +3460,9 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:p/>
+        <a:p>
+          <a:pPr algn="l"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -3322,7 +3507,9 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:p/>
+        <a:p>
+          <a:pPr algn="l"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -3367,7 +3554,9 @@
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0"/>
-        <a:p/>
+        <a:p>
+          <a:pPr algn="l"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData fLocksWithSheet="1" fPrintsWithSheet="1"/>
@@ -3697,8 +3886,8 @@
   <x:sheetPr codeName="개발일정"/>
   <x:dimension ref="A1:IV69"/>
   <x:sheetViews>
-    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <x:selection activeCell="D17" activeCellId="0" sqref="D17:D17"/>
+    <x:sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" zoomScaleNormal="100" workbookViewId="0">
+      <x:selection activeCell="L16" activeCellId="0" sqref="L16:L16"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.35"/>
@@ -3716,85 +3905,85 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="2:52" ht="18" customHeight="1">
-      <x:c r="B1" s="100" t="s">
-        <x:v>3</x:v>
+      <x:c r="B1" s="105" t="s">
+        <x:v>9</x:v>
       </x:c>
-      <x:c r="C1" s="100"/>
-      <x:c r="D1" s="100"/>
-      <x:c r="E1" s="100"/>
-      <x:c r="F1" s="100"/>
-      <x:c r="G1" s="100"/>
-      <x:c r="H1" s="100"/>
-      <x:c r="I1" s="100"/>
-      <x:c r="J1" s="100"/>
-      <x:c r="K1" s="100"/>
-      <x:c r="L1" s="100"/>
-      <x:c r="M1" s="100"/>
-      <x:c r="N1" s="100"/>
-      <x:c r="O1" s="100"/>
-      <x:c r="P1" s="100"/>
-      <x:c r="Q1" s="100"/>
-      <x:c r="R1" s="100"/>
-      <x:c r="S1" s="100"/>
-      <x:c r="T1" s="100"/>
-      <x:c r="U1" s="100"/>
-      <x:c r="V1" s="100"/>
-      <x:c r="W1" s="100"/>
-      <x:c r="X1" s="100"/>
-      <x:c r="Y1" s="100"/>
-      <x:c r="Z1" s="100"/>
-      <x:c r="AA1" s="100"/>
-      <x:c r="AB1" s="100"/>
-      <x:c r="AC1" s="100"/>
-      <x:c r="AD1" s="100"/>
-      <x:c r="AE1" s="100"/>
-      <x:c r="AF1" s="100"/>
-      <x:c r="AG1" s="100"/>
-      <x:c r="AH1" s="100"/>
-      <x:c r="AI1" s="100"/>
-      <x:c r="AJ1" s="100"/>
-      <x:c r="AK1" s="100"/>
-      <x:c r="AL1" s="100"/>
-      <x:c r="AM1" s="100"/>
-      <x:c r="AN1" s="100"/>
-      <x:c r="AO1" s="100"/>
-      <x:c r="AP1" s="100"/>
-      <x:c r="AQ1" s="100"/>
-      <x:c r="AR1" s="100"/>
-      <x:c r="AS1" s="100"/>
-      <x:c r="AT1" s="100"/>
-      <x:c r="AU1" s="100"/>
-      <x:c r="AV1" s="100"/>
-      <x:c r="AW1" s="100"/>
-      <x:c r="AX1" s="100"/>
-      <x:c r="AY1" s="100"/>
-      <x:c r="AZ1" s="100"/>
+      <x:c r="C1" s="105"/>
+      <x:c r="D1" s="105"/>
+      <x:c r="E1" s="105"/>
+      <x:c r="F1" s="105"/>
+      <x:c r="G1" s="105"/>
+      <x:c r="H1" s="105"/>
+      <x:c r="I1" s="105"/>
+      <x:c r="J1" s="105"/>
+      <x:c r="K1" s="105"/>
+      <x:c r="L1" s="105"/>
+      <x:c r="M1" s="105"/>
+      <x:c r="N1" s="105"/>
+      <x:c r="O1" s="105"/>
+      <x:c r="P1" s="105"/>
+      <x:c r="Q1" s="105"/>
+      <x:c r="R1" s="105"/>
+      <x:c r="S1" s="105"/>
+      <x:c r="T1" s="105"/>
+      <x:c r="U1" s="105"/>
+      <x:c r="V1" s="105"/>
+      <x:c r="W1" s="105"/>
+      <x:c r="X1" s="105"/>
+      <x:c r="Y1" s="105"/>
+      <x:c r="Z1" s="105"/>
+      <x:c r="AA1" s="105"/>
+      <x:c r="AB1" s="105"/>
+      <x:c r="AC1" s="105"/>
+      <x:c r="AD1" s="105"/>
+      <x:c r="AE1" s="105"/>
+      <x:c r="AF1" s="105"/>
+      <x:c r="AG1" s="105"/>
+      <x:c r="AH1" s="105"/>
+      <x:c r="AI1" s="105"/>
+      <x:c r="AJ1" s="105"/>
+      <x:c r="AK1" s="105"/>
+      <x:c r="AL1" s="105"/>
+      <x:c r="AM1" s="105"/>
+      <x:c r="AN1" s="105"/>
+      <x:c r="AO1" s="105"/>
+      <x:c r="AP1" s="105"/>
+      <x:c r="AQ1" s="105"/>
+      <x:c r="AR1" s="105"/>
+      <x:c r="AS1" s="105"/>
+      <x:c r="AT1" s="105"/>
+      <x:c r="AU1" s="105"/>
+      <x:c r="AV1" s="105"/>
+      <x:c r="AW1" s="105"/>
+      <x:c r="AX1" s="105"/>
+      <x:c r="AY1" s="105"/>
+      <x:c r="AZ1" s="105"/>
     </x:row>
     <x:row r="2" spans="52:52" ht="14.25" customHeight="1">
       <x:c r="AZ2" s="2"/>
     </x:row>
     <x:row r="3" spans="2:52" ht="18" customHeight="1">
-      <x:c r="B3" s="101" t="s">
-        <x:v>6</x:v>
+      <x:c r="B3" s="106" t="s">
+        <x:v>4</x:v>
       </x:c>
-      <x:c r="C3" s="101" t="s">
-        <x:v>45</x:v>
+      <x:c r="C3" s="106" t="s">
+        <x:v>52</x:v>
       </x:c>
-      <x:c r="D3" s="101" t="s">
-        <x:v>49</x:v>
+      <x:c r="D3" s="106" t="s">
+        <x:v>54</x:v>
       </x:c>
-      <x:c r="E3" s="94" t="s">
+      <x:c r="E3" s="99" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="F3" s="100"/>
+      <x:c r="G3" s="69" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H3" s="62" t="s">
         <x:v>60</x:v>
       </x:c>
-      <x:c r="F3" s="95"/>
-      <x:c r="G3" s="69" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="H3" s="62" t="s">
-        <x:v>43</x:v>
-      </x:c>
       <x:c r="I3" s="47" t="s">
-        <x:v>59</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="J3" s="51"/>
       <x:c r="K3" s="51"/>
@@ -3841,11 +4030,11 @@
       <x:c r="AZ3" s="48"/>
     </x:row>
     <x:row r="4" spans="2:52" s="3" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B4" s="102"/>
-      <x:c r="C4" s="102"/>
-      <x:c r="D4" s="102"/>
-      <x:c r="E4" s="96"/>
-      <x:c r="F4" s="97"/>
+      <x:c r="B4" s="107"/>
+      <x:c r="C4" s="107"/>
+      <x:c r="D4" s="107"/>
+      <x:c r="E4" s="101"/>
+      <x:c r="F4" s="102"/>
       <x:c r="G4" s="70"/>
       <x:c r="H4" s="63"/>
       <x:c r="I4" s="49"/>
@@ -3894,73 +4083,73 @@
       <x:c r="AZ4" s="50"/>
     </x:row>
     <x:row r="5" spans="2:52" s="3" customFormat="1" ht="18" customHeight="1">
-      <x:c r="B5" s="103"/>
-      <x:c r="C5" s="103"/>
-      <x:c r="D5" s="103"/>
-      <x:c r="E5" s="98"/>
-      <x:c r="F5" s="99"/>
+      <x:c r="B5" s="108"/>
+      <x:c r="C5" s="108"/>
+      <x:c r="D5" s="108"/>
+      <x:c r="E5" s="103"/>
+      <x:c r="F5" s="104"/>
       <x:c r="G5" s="71"/>
       <x:c r="H5" s="64"/>
       <x:c r="I5" s="49"/>
-      <x:c r="J5" s="88"/>
-      <x:c r="K5" s="88"/>
-      <x:c r="L5" s="88"/>
-      <x:c r="M5" s="88"/>
-      <x:c r="N5" s="88"/>
-      <x:c r="O5" s="88"/>
-      <x:c r="P5" s="88"/>
-      <x:c r="Q5" s="88"/>
-      <x:c r="R5" s="88"/>
-      <x:c r="S5" s="88"/>
-      <x:c r="T5" s="88"/>
-      <x:c r="U5" s="88"/>
-      <x:c r="V5" s="88"/>
-      <x:c r="W5" s="88"/>
-      <x:c r="X5" s="88"/>
-      <x:c r="Y5" s="88"/>
-      <x:c r="Z5" s="88"/>
-      <x:c r="AA5" s="88"/>
-      <x:c r="AB5" s="88"/>
-      <x:c r="AC5" s="88"/>
-      <x:c r="AD5" s="88"/>
-      <x:c r="AE5" s="88"/>
-      <x:c r="AF5" s="88"/>
-      <x:c r="AG5" s="88"/>
-      <x:c r="AH5" s="88"/>
-      <x:c r="AI5" s="88"/>
-      <x:c r="AJ5" s="88"/>
-      <x:c r="AK5" s="88"/>
-      <x:c r="AL5" s="88"/>
-      <x:c r="AM5" s="88"/>
-      <x:c r="AN5" s="88"/>
-      <x:c r="AO5" s="88"/>
-      <x:c r="AP5" s="88"/>
-      <x:c r="AQ5" s="88"/>
-      <x:c r="AR5" s="88"/>
-      <x:c r="AS5" s="88"/>
-      <x:c r="AT5" s="88"/>
-      <x:c r="AU5" s="88"/>
-      <x:c r="AV5" s="88"/>
-      <x:c r="AW5" s="88"/>
-      <x:c r="AX5" s="88"/>
-      <x:c r="AY5" s="88"/>
+      <x:c r="J5" s="87"/>
+      <x:c r="K5" s="87"/>
+      <x:c r="L5" s="87"/>
+      <x:c r="M5" s="87"/>
+      <x:c r="N5" s="87"/>
+      <x:c r="O5" s="87"/>
+      <x:c r="P5" s="87"/>
+      <x:c r="Q5" s="87"/>
+      <x:c r="R5" s="87"/>
+      <x:c r="S5" s="87"/>
+      <x:c r="T5" s="87"/>
+      <x:c r="U5" s="87"/>
+      <x:c r="V5" s="87"/>
+      <x:c r="W5" s="87"/>
+      <x:c r="X5" s="87"/>
+      <x:c r="Y5" s="87"/>
+      <x:c r="Z5" s="87"/>
+      <x:c r="AA5" s="87"/>
+      <x:c r="AB5" s="87"/>
+      <x:c r="AC5" s="87"/>
+      <x:c r="AD5" s="87"/>
+      <x:c r="AE5" s="87"/>
+      <x:c r="AF5" s="87"/>
+      <x:c r="AG5" s="87"/>
+      <x:c r="AH5" s="87"/>
+      <x:c r="AI5" s="87"/>
+      <x:c r="AJ5" s="87"/>
+      <x:c r="AK5" s="87"/>
+      <x:c r="AL5" s="87"/>
+      <x:c r="AM5" s="87"/>
+      <x:c r="AN5" s="87"/>
+      <x:c r="AO5" s="87"/>
+      <x:c r="AP5" s="87"/>
+      <x:c r="AQ5" s="87"/>
+      <x:c r="AR5" s="87"/>
+      <x:c r="AS5" s="87"/>
+      <x:c r="AT5" s="87"/>
+      <x:c r="AU5" s="87"/>
+      <x:c r="AV5" s="87"/>
+      <x:c r="AW5" s="87"/>
+      <x:c r="AX5" s="87"/>
+      <x:c r="AY5" s="87"/>
       <x:c r="AZ5" s="50"/>
     </x:row>
     <x:row r="6" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="B6" s="37" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C6" s="37" t="s">
-        <x:v>8</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D6" s="42" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="E6" s="54"/>
       <x:c r="F6" s="55"/>
       <x:c r="G6" s="53"/>
-      <x:c r="H6" s="92"/>
-      <x:c r="I6" s="89"/>
+      <x:c r="H6" s="91"/>
+      <x:c r="I6" s="88"/>
       <x:c r="J6" s="35"/>
       <x:c r="K6" s="11"/>
       <x:c r="L6" s="11"/>
@@ -4057,13 +4246,13 @@
       <x:c r="B7" s="38"/>
       <x:c r="C7" s="38"/>
       <x:c r="D7" s="43" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E7" s="56"/>
       <x:c r="F7" s="57"/>
       <x:c r="G7" s="53"/>
-      <x:c r="H7" s="92"/>
-      <x:c r="I7" s="90"/>
+      <x:c r="H7" s="91"/>
+      <x:c r="I7" s="89"/>
       <x:c r="J7" s="25"/>
       <x:c r="K7" s="5"/>
       <x:c r="L7" s="5"/>
@@ -4160,13 +4349,13 @@
       <x:c r="B8" s="38"/>
       <x:c r="C8" s="38"/>
       <x:c r="D8" s="43" t="s">
-        <x:v>40</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="E8" s="56"/>
       <x:c r="F8" s="57"/>
       <x:c r="G8" s="53"/>
-      <x:c r="H8" s="92"/>
-      <x:c r="I8" s="90"/>
+      <x:c r="H8" s="91"/>
+      <x:c r="I8" s="89"/>
       <x:c r="J8" s="25"/>
       <x:c r="K8" s="5"/>
       <x:c r="L8" s="5"/>
@@ -4263,13 +4452,13 @@
       <x:c r="B9" s="38"/>
       <x:c r="C9" s="39"/>
       <x:c r="D9" s="44" t="s">
-        <x:v>19</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E9" s="58"/>
       <x:c r="F9" s="59"/>
       <x:c r="G9" s="53"/>
-      <x:c r="H9" s="92"/>
-      <x:c r="I9" s="90"/>
+      <x:c r="H9" s="91"/>
+      <x:c r="I9" s="89"/>
       <x:c r="J9" s="25"/>
       <x:c r="K9" s="5"/>
       <x:c r="L9" s="5"/>
@@ -4286,11 +4475,11 @@
       <x:c r="W9" s="5"/>
       <x:c r="X9" s="5"/>
       <x:c r="Y9" s="5"/>
-      <x:c r="Z9" s="93"/>
-      <x:c r="AA9" s="93"/>
-      <x:c r="AB9" s="93"/>
-      <x:c r="AC9" s="93"/>
-      <x:c r="AD9" s="93"/>
+      <x:c r="Z9" s="92"/>
+      <x:c r="AA9" s="92"/>
+      <x:c r="AB9" s="92"/>
+      <x:c r="AC9" s="92"/>
+      <x:c r="AD9" s="92"/>
       <x:c r="AE9" s="5"/>
       <x:c r="AF9" s="5"/>
       <x:c r="AG9" s="5"/>
@@ -4332,11 +4521,11 @@
       <x:c r="BQ9" s="5"/>
       <x:c r="BR9" s="5"/>
       <x:c r="BS9" s="5"/>
-      <x:c r="BT9" s="93"/>
-      <x:c r="BU9" s="93"/>
-      <x:c r="BV9" s="93"/>
-      <x:c r="BW9" s="93"/>
-      <x:c r="BX9" s="93"/>
+      <x:c r="BT9" s="92"/>
+      <x:c r="BU9" s="92"/>
+      <x:c r="BV9" s="92"/>
+      <x:c r="BW9" s="92"/>
+      <x:c r="BX9" s="92"/>
       <x:c r="BY9" s="5"/>
       <x:c r="BZ9" s="5"/>
       <x:c r="CA9" s="5"/>
@@ -4365,16 +4554,16 @@
     <x:row r="10" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="B10" s="38"/>
       <x:c r="C10" s="37" t="s">
-        <x:v>5</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="D10" s="42" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="E10" s="54"/>
       <x:c r="F10" s="55"/>
       <x:c r="G10" s="53"/>
-      <x:c r="H10" s="92"/>
-      <x:c r="I10" s="90"/>
+      <x:c r="H10" s="91"/>
+      <x:c r="I10" s="89"/>
       <x:c r="J10" s="25"/>
       <x:c r="K10" s="5"/>
       <x:c r="L10" s="5"/>
@@ -4471,13 +4660,13 @@
       <x:c r="B11" s="38"/>
       <x:c r="C11" s="38"/>
       <x:c r="D11" s="43" t="s">
-        <x:v>62</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E11" s="56"/>
       <x:c r="F11" s="57"/>
       <x:c r="G11" s="53"/>
-      <x:c r="H11" s="92"/>
-      <x:c r="I11" s="90"/>
+      <x:c r="H11" s="91"/>
+      <x:c r="I11" s="89"/>
       <x:c r="J11" s="25"/>
       <x:c r="K11" s="5"/>
       <x:c r="L11" s="5"/>
@@ -4574,13 +4763,13 @@
       <x:c r="B12" s="38"/>
       <x:c r="C12" s="38"/>
       <x:c r="D12" s="43" t="s">
-        <x:v>64</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="56"/>
       <x:c r="F12" s="57"/>
       <x:c r="G12" s="53"/>
-      <x:c r="H12" s="92"/>
-      <x:c r="I12" s="90"/>
+      <x:c r="H12" s="91"/>
+      <x:c r="I12" s="89"/>
       <x:c r="J12" s="25"/>
       <x:c r="K12" s="5"/>
       <x:c r="L12" s="5"/>
@@ -4677,13 +4866,13 @@
       <x:c r="B13" s="39"/>
       <x:c r="C13" s="39"/>
       <x:c r="D13" s="44" t="s">
-        <x:v>34</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E13" s="58"/>
       <x:c r="F13" s="59"/>
       <x:c r="G13" s="72"/>
       <x:c r="H13" s="78"/>
-      <x:c r="I13" s="91"/>
+      <x:c r="I13" s="90"/>
       <x:c r="J13" s="36"/>
       <x:c r="K13" s="6"/>
       <x:c r="L13" s="6"/>
@@ -4779,7 +4968,9 @@
     <x:row r="14" s="3" customFormat="1" ht="14.1" customHeight="1"/>
     <x:row r="15" s="3" customFormat="1" ht="14.1" customHeight="1"/>
     <x:row r="16" s="3" customFormat="1" ht="14.1" customHeight="1"/>
-    <x:row r="17" s="3" customFormat="1" ht="14.1" customHeight="1"/>
+    <x:row r="17" spans="15:15" s="3" customFormat="1" ht="14.1" customHeight="1">
+      <x:c r="O17" s="115"/>
+    </x:row>
     <x:row r="18" spans="9:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="I18" s="86"/>
       <x:c r="J18" s="86"/>
@@ -4876,24 +5067,30 @@
     </x:row>
     <x:row r="19" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="B19" s="26" t="s">
-        <x:v>73</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C19" s="29" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D19" s="74" t="s">
-        <x:v>30</x:v>
+        <x:v>74</x:v>
       </x:c>
-      <x:c r="E19" s="54"/>
-      <x:c r="F19" s="55"/>
-      <x:c r="G19" s="61"/>
-      <x:c r="H19" s="60"/>
-      <x:c r="I19" s="87"/>
-      <x:c r="J19" s="11"/>
-      <x:c r="K19" s="11"/>
-      <x:c r="L19" s="11"/>
-      <x:c r="M19" s="11"/>
-      <x:c r="N19" s="11"/>
+      <x:c r="E19" s="110" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="F19" s="110"/>
+      <x:c r="G19" s="61">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="H19" s="121">
+        <x:v>0.77083333333333337</x:v>
+      </x:c>
+      <x:c r="I19" s="113"/>
+      <x:c r="J19" s="114"/>
+      <x:c r="K19" s="114"/>
+      <x:c r="L19" s="114"/>
+      <x:c r="M19" s="114"/>
+      <x:c r="N19" s="114"/>
       <x:c r="O19" s="11"/>
       <x:c r="P19" s="11"/>
       <x:c r="Q19" s="11"/>
@@ -4984,22 +5181,24 @@
     <x:row r="20" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="B20" s="27"/>
       <x:c r="C20" s="30" t="s">
-        <x:v>16</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="D20" s="75" t="s">
-        <x:v>56</x:v>
+        <x:v>22</x:v>
       </x:c>
-      <x:c r="E20" s="56"/>
-      <x:c r="F20" s="57"/>
-      <x:c r="G20" s="60"/>
+      <x:c r="E20" s="110"/>
+      <x:c r="F20" s="110"/>
+      <x:c r="G20" s="60">
+        <x:v>100</x:v>
+      </x:c>
       <x:c r="H20" s="60"/>
-      <x:c r="I20" s="77"/>
-      <x:c r="J20" s="5"/>
-      <x:c r="K20" s="5"/>
-      <x:c r="L20" s="5"/>
-      <x:c r="M20" s="5"/>
-      <x:c r="N20" s="5"/>
-      <x:c r="O20" s="5"/>
+      <x:c r="I20" s="116"/>
+      <x:c r="J20" s="117"/>
+      <x:c r="K20" s="117"/>
+      <x:c r="L20" s="117"/>
+      <x:c r="M20" s="117"/>
+      <x:c r="N20" s="117"/>
+      <x:c r="O20" s="117"/>
       <x:c r="P20" s="5"/>
       <x:c r="Q20" s="5"/>
       <x:c r="R20" s="5"/>
@@ -5090,21 +5289,23 @@
       <x:c r="B21" s="27"/>
       <x:c r="C21" s="30"/>
       <x:c r="D21" s="75" t="s">
-        <x:v>10</x:v>
+        <x:v>79</x:v>
       </x:c>
-      <x:c r="E21" s="56"/>
-      <x:c r="F21" s="57"/>
+      <x:c r="E21" s="110"/>
+      <x:c r="F21" s="110"/>
       <x:c r="G21" s="60"/>
-      <x:c r="H21" s="60"/>
-      <x:c r="I21" s="77"/>
-      <x:c r="J21" s="5"/>
-      <x:c r="K21" s="5"/>
-      <x:c r="L21" s="5"/>
-      <x:c r="M21" s="5"/>
-      <x:c r="N21" s="5"/>
-      <x:c r="O21" s="5"/>
-      <x:c r="P21" s="5"/>
-      <x:c r="Q21" s="5"/>
+      <x:c r="H21" s="121">
+        <x:v>0.27777777777777779</x:v>
+      </x:c>
+      <x:c r="I21" s="116"/>
+      <x:c r="J21" s="117"/>
+      <x:c r="K21" s="117"/>
+      <x:c r="L21" s="120"/>
+      <x:c r="M21" s="120"/>
+      <x:c r="N21" s="120"/>
+      <x:c r="O21" s="120"/>
+      <x:c r="P21" s="120"/>
+      <x:c r="Q21" s="120"/>
       <x:c r="R21" s="5"/>
       <x:c r="S21" s="5"/>
       <x:c r="T21" s="5"/>
@@ -5193,24 +5394,26 @@
       <x:c r="B22" s="27"/>
       <x:c r="C22" s="30"/>
       <x:c r="D22" s="75" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
-      <x:c r="E22" s="56"/>
-      <x:c r="F22" s="57"/>
-      <x:c r="G22" s="60"/>
+      <x:c r="E22" s="110"/>
+      <x:c r="F22" s="110"/>
+      <x:c r="G22" s="60">
+        <x:v>80</x:v>
+      </x:c>
       <x:c r="H22" s="60"/>
-      <x:c r="I22" s="77"/>
-      <x:c r="J22" s="5"/>
-      <x:c r="K22" s="5"/>
-      <x:c r="L22" s="5"/>
-      <x:c r="M22" s="5"/>
-      <x:c r="N22" s="5"/>
-      <x:c r="O22" s="5"/>
-      <x:c r="P22" s="5"/>
-      <x:c r="Q22" s="5"/>
-      <x:c r="R22" s="5"/>
-      <x:c r="S22" s="5"/>
-      <x:c r="T22" s="5"/>
+      <x:c r="I22" s="116"/>
+      <x:c r="J22" s="117"/>
+      <x:c r="K22" s="117"/>
+      <x:c r="L22" s="117"/>
+      <x:c r="M22" s="117"/>
+      <x:c r="N22" s="117"/>
+      <x:c r="O22" s="117"/>
+      <x:c r="P22" s="117"/>
+      <x:c r="Q22" s="117"/>
+      <x:c r="R22" s="118"/>
+      <x:c r="S22" s="112"/>
+      <x:c r="T22" s="112"/>
       <x:c r="U22" s="5"/>
       <x:c r="V22" s="5"/>
       <x:c r="W22" s="5"/>
@@ -5396,13 +5599,15 @@
     <x:row r="24" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1">
       <x:c r="B24" s="27"/>
       <x:c r="C24" s="26" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>80</x:v>
       </x:c>
-      <x:c r="E24" s="54"/>
-      <x:c r="F24" s="55"/>
+      <x:c r="E24" s="111" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="F24" s="111"/>
       <x:c r="G24" s="60"/>
       <x:c r="H24" s="60"/>
       <x:c r="I24" s="77"/>
@@ -5502,10 +5707,10 @@
       <x:c r="B25" s="27"/>
       <x:c r="C25" s="27"/>
       <x:c r="D25" s="17" t="s">
-        <x:v>70</x:v>
+        <x:v>69</x:v>
       </x:c>
-      <x:c r="E25" s="56"/>
-      <x:c r="F25" s="57"/>
+      <x:c r="E25" s="111"/>
+      <x:c r="F25" s="111"/>
       <x:c r="G25" s="60"/>
       <x:c r="H25" s="60"/>
       <x:c r="I25" s="77"/>
@@ -5605,10 +5810,10 @@
       <x:c r="B26" s="27"/>
       <x:c r="C26" s="27"/>
       <x:c r="D26" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>75</x:v>
       </x:c>
-      <x:c r="E26" s="56"/>
-      <x:c r="F26" s="57"/>
+      <x:c r="E26" s="111"/>
+      <x:c r="F26" s="111"/>
       <x:c r="G26" s="60"/>
       <x:c r="H26" s="60"/>
       <x:c r="I26" s="77"/>
@@ -5708,10 +5913,10 @@
       <x:c r="B27" s="27"/>
       <x:c r="C27" s="27"/>
       <x:c r="D27" s="20" t="s">
-        <x:v>65</x:v>
+        <x:v>62</x:v>
       </x:c>
-      <x:c r="E27" s="56"/>
-      <x:c r="F27" s="57"/>
+      <x:c r="E27" s="111"/>
+      <x:c r="F27" s="111"/>
       <x:c r="G27" s="60"/>
       <x:c r="H27" s="60"/>
       <x:c r="I27" s="77"/>
@@ -5811,10 +6016,10 @@
       <x:c r="B28" s="27"/>
       <x:c r="C28" s="28"/>
       <x:c r="D28" s="18" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
-      <x:c r="E28" s="58"/>
-      <x:c r="F28" s="59"/>
+      <x:c r="E28" s="111"/>
+      <x:c r="F28" s="111"/>
       <x:c r="G28" s="60"/>
       <x:c r="H28" s="60"/>
       <x:c r="I28" s="77"/>
@@ -5913,13 +6118,15 @@
     <x:row r="29" spans="2:100" ht="14.1" customHeight="1">
       <x:c r="B29" s="27"/>
       <x:c r="C29" s="26" t="s">
-        <x:v>72</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>81</x:v>
       </x:c>
-      <x:c r="E29" s="54"/>
-      <x:c r="F29" s="55"/>
+      <x:c r="E29" s="110" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F29" s="110"/>
       <x:c r="G29" s="60"/>
       <x:c r="H29" s="60"/>
       <x:c r="I29" s="77"/>
@@ -6019,10 +6226,10 @@
       <x:c r="B30" s="27"/>
       <x:c r="C30" s="27"/>
       <x:c r="D30" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>78</x:v>
       </x:c>
-      <x:c r="E30" s="56"/>
-      <x:c r="F30" s="57"/>
+      <x:c r="E30" s="110"/>
+      <x:c r="F30" s="110"/>
       <x:c r="G30" s="60"/>
       <x:c r="H30" s="60"/>
       <x:c r="I30" s="77"/>
@@ -6122,10 +6329,10 @@
       <x:c r="B31" s="27"/>
       <x:c r="C31" s="27"/>
       <x:c r="D31" s="17" t="s">
-        <x:v>1</x:v>
+        <x:v>82</x:v>
       </x:c>
-      <x:c r="E31" s="56"/>
-      <x:c r="F31" s="57"/>
+      <x:c r="E31" s="110"/>
+      <x:c r="F31" s="110"/>
       <x:c r="G31" s="60"/>
       <x:c r="H31" s="60"/>
       <x:c r="I31" s="77"/>
@@ -6226,10 +6433,10 @@
       <x:c r="B32" s="27"/>
       <x:c r="C32" s="27"/>
       <x:c r="D32" s="20" t="s">
-        <x:v>66</x:v>
+        <x:v>63</x:v>
       </x:c>
-      <x:c r="E32" s="56"/>
-      <x:c r="F32" s="57"/>
+      <x:c r="E32" s="110"/>
+      <x:c r="F32" s="110"/>
       <x:c r="G32" s="60"/>
       <x:c r="H32" s="60"/>
       <x:c r="I32" s="77"/>
@@ -6486,10 +6693,10 @@
       <x:c r="B33" s="27"/>
       <x:c r="C33" s="27"/>
       <x:c r="D33" s="20" t="s">
-        <x:v>67</x:v>
+        <x:v>64</x:v>
       </x:c>
-      <x:c r="E33" s="56"/>
-      <x:c r="F33" s="57"/>
+      <x:c r="E33" s="110"/>
+      <x:c r="F33" s="110"/>
       <x:c r="G33" s="60"/>
       <x:c r="H33" s="60"/>
       <x:c r="I33" s="77"/>
@@ -6745,10 +6952,10 @@
       <x:c r="B34" s="27"/>
       <x:c r="C34" s="27"/>
       <x:c r="D34" s="20" t="s">
-        <x:v>38</x:v>
+        <x:v>8</x:v>
       </x:c>
-      <x:c r="E34" s="56"/>
-      <x:c r="F34" s="57"/>
+      <x:c r="E34" s="110"/>
+      <x:c r="F34" s="110"/>
       <x:c r="G34" s="60"/>
       <x:c r="H34" s="60"/>
       <x:c r="I34" s="77"/>
@@ -6948,13 +7155,15 @@
     <x:row r="36" spans="2:100" ht="14.1" customHeight="1">
       <x:c r="B36" s="27"/>
       <x:c r="C36" s="40" t="s">
-        <x:v>12</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D36" s="19" t="s">
-        <x:v>0</x:v>
+        <x:v>43</x:v>
       </x:c>
-      <x:c r="E36" s="54"/>
-      <x:c r="F36" s="55"/>
+      <x:c r="E36" s="111" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F36" s="111"/>
       <x:c r="G36" s="60"/>
       <x:c r="H36" s="60"/>
       <x:c r="I36" s="80"/>
@@ -7054,10 +7263,10 @@
       <x:c r="B37" s="27"/>
       <x:c r="C37" s="41"/>
       <x:c r="D37" s="17" t="s">
-        <x:v>2</x:v>
+        <x:v>44</x:v>
       </x:c>
-      <x:c r="E37" s="56"/>
-      <x:c r="F37" s="57"/>
+      <x:c r="E37" s="111"/>
+      <x:c r="F37" s="111"/>
       <x:c r="G37" s="60"/>
       <x:c r="H37" s="60"/>
       <x:c r="I37" s="80"/>
@@ -7158,10 +7367,10 @@
       <x:c r="B38" s="27"/>
       <x:c r="C38" s="41"/>
       <x:c r="D38" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
-      <x:c r="E38" s="56"/>
-      <x:c r="F38" s="57"/>
+      <x:c r="E38" s="111"/>
+      <x:c r="F38" s="111"/>
       <x:c r="G38" s="60"/>
       <x:c r="H38" s="60"/>
       <x:c r="I38" s="80"/>
@@ -7418,10 +7627,10 @@
       <x:c r="B39" s="27"/>
       <x:c r="C39" s="41"/>
       <x:c r="D39" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>77</x:v>
       </x:c>
-      <x:c r="E39" s="56"/>
-      <x:c r="F39" s="57"/>
+      <x:c r="E39" s="111"/>
+      <x:c r="F39" s="111"/>
       <x:c r="G39" s="60"/>
       <x:c r="H39" s="60"/>
       <x:c r="I39" s="80"/>
@@ -7676,13 +7885,15 @@
     <x:row r="40" spans="2:100" ht="14.1" customHeight="1">
       <x:c r="B40" s="27"/>
       <x:c r="C40" s="40" t="s">
-        <x:v>13</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D40" s="74" t="s">
-        <x:v>39</x:v>
+        <x:v>7</x:v>
       </x:c>
-      <x:c r="E40" s="54"/>
-      <x:c r="F40" s="55"/>
+      <x:c r="E40" s="119" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F40" s="119"/>
       <x:c r="G40" s="60"/>
       <x:c r="H40" s="60"/>
       <x:c r="I40" s="80"/>
@@ -7782,10 +7993,10 @@
       <x:c r="B41" s="27"/>
       <x:c r="C41" s="41"/>
       <x:c r="D41" s="75" t="s">
-        <x:v>10</x:v>
+        <x:v>66</x:v>
       </x:c>
-      <x:c r="E41" s="56"/>
-      <x:c r="F41" s="57"/>
+      <x:c r="E41" s="119"/>
+      <x:c r="F41" s="119"/>
       <x:c r="G41" s="60"/>
       <x:c r="H41" s="60"/>
       <x:c r="I41" s="80"/>
@@ -7885,105 +8096,105 @@
       <x:c r="A42" s="1"/>
       <x:c r="B42" s="27"/>
       <x:c r="C42" s="41"/>
-      <x:c r="D42" s="104" t="s">
-        <x:v>29</x:v>
+      <x:c r="D42" s="93" t="s">
+        <x:v>71</x:v>
       </x:c>
-      <x:c r="E42" s="56"/>
-      <x:c r="F42" s="57"/>
+      <x:c r="E42" s="119"/>
+      <x:c r="F42" s="119"/>
       <x:c r="G42" s="60"/>
       <x:c r="H42" s="60"/>
-      <x:c r="I42" s="105"/>
-      <x:c r="J42" s="106"/>
-      <x:c r="K42" s="106"/>
-      <x:c r="L42" s="106"/>
-      <x:c r="M42" s="106"/>
-      <x:c r="N42" s="106"/>
-      <x:c r="O42" s="106"/>
-      <x:c r="P42" s="106"/>
-      <x:c r="Q42" s="106"/>
-      <x:c r="R42" s="106"/>
-      <x:c r="S42" s="106"/>
-      <x:c r="T42" s="106"/>
-      <x:c r="U42" s="106"/>
-      <x:c r="V42" s="106"/>
-      <x:c r="W42" s="106"/>
-      <x:c r="X42" s="106"/>
-      <x:c r="Y42" s="106"/>
-      <x:c r="Z42" s="106"/>
-      <x:c r="AA42" s="106"/>
-      <x:c r="AB42" s="106"/>
-      <x:c r="AC42" s="106"/>
-      <x:c r="AD42" s="106"/>
-      <x:c r="AE42" s="106"/>
-      <x:c r="AF42" s="106"/>
-      <x:c r="AG42" s="106"/>
-      <x:c r="AH42" s="106"/>
-      <x:c r="AI42" s="106"/>
-      <x:c r="AJ42" s="106"/>
-      <x:c r="AK42" s="106"/>
-      <x:c r="AL42" s="106"/>
-      <x:c r="AM42" s="106"/>
-      <x:c r="AN42" s="106"/>
-      <x:c r="AO42" s="106"/>
-      <x:c r="AP42" s="106"/>
-      <x:c r="AQ42" s="106"/>
-      <x:c r="AR42" s="106"/>
-      <x:c r="AS42" s="106"/>
-      <x:c r="AT42" s="106"/>
-      <x:c r="AU42" s="106"/>
-      <x:c r="AV42" s="106"/>
-      <x:c r="AW42" s="106"/>
-      <x:c r="AX42" s="106"/>
-      <x:c r="AY42" s="106"/>
-      <x:c r="AZ42" s="106"/>
-      <x:c r="BA42" s="106"/>
-      <x:c r="BB42" s="106"/>
-      <x:c r="BC42" s="106"/>
-      <x:c r="BD42" s="106"/>
-      <x:c r="BE42" s="106"/>
-      <x:c r="BF42" s="106"/>
-      <x:c r="BG42" s="106"/>
-      <x:c r="BH42" s="106"/>
-      <x:c r="BI42" s="106"/>
-      <x:c r="BJ42" s="106"/>
-      <x:c r="BK42" s="106"/>
-      <x:c r="BL42" s="106"/>
-      <x:c r="BM42" s="106"/>
-      <x:c r="BN42" s="106"/>
-      <x:c r="BO42" s="106"/>
-      <x:c r="BP42" s="106"/>
-      <x:c r="BQ42" s="106"/>
-      <x:c r="BR42" s="106"/>
-      <x:c r="BS42" s="106"/>
-      <x:c r="BT42" s="106"/>
-      <x:c r="BU42" s="106"/>
-      <x:c r="BV42" s="106"/>
-      <x:c r="BW42" s="106"/>
-      <x:c r="BX42" s="106"/>
-      <x:c r="BY42" s="106"/>
-      <x:c r="BZ42" s="106"/>
-      <x:c r="CA42" s="106"/>
-      <x:c r="CB42" s="106"/>
-      <x:c r="CC42" s="106"/>
-      <x:c r="CD42" s="106"/>
-      <x:c r="CE42" s="106"/>
-      <x:c r="CF42" s="106"/>
-      <x:c r="CG42" s="106"/>
-      <x:c r="CH42" s="106"/>
-      <x:c r="CI42" s="106"/>
-      <x:c r="CJ42" s="106"/>
-      <x:c r="CK42" s="106"/>
-      <x:c r="CL42" s="106"/>
-      <x:c r="CM42" s="106"/>
-      <x:c r="CN42" s="106"/>
-      <x:c r="CO42" s="106"/>
-      <x:c r="CP42" s="106"/>
-      <x:c r="CQ42" s="106"/>
-      <x:c r="CR42" s="106"/>
-      <x:c r="CS42" s="106"/>
-      <x:c r="CT42" s="106"/>
-      <x:c r="CU42" s="106"/>
-      <x:c r="CV42" s="107"/>
+      <x:c r="I42" s="94"/>
+      <x:c r="J42" s="95"/>
+      <x:c r="K42" s="95"/>
+      <x:c r="L42" s="95"/>
+      <x:c r="M42" s="95"/>
+      <x:c r="N42" s="95"/>
+      <x:c r="O42" s="95"/>
+      <x:c r="P42" s="95"/>
+      <x:c r="Q42" s="95"/>
+      <x:c r="R42" s="95"/>
+      <x:c r="S42" s="95"/>
+      <x:c r="T42" s="95"/>
+      <x:c r="U42" s="95"/>
+      <x:c r="V42" s="95"/>
+      <x:c r="W42" s="95"/>
+      <x:c r="X42" s="95"/>
+      <x:c r="Y42" s="95"/>
+      <x:c r="Z42" s="95"/>
+      <x:c r="AA42" s="95"/>
+      <x:c r="AB42" s="95"/>
+      <x:c r="AC42" s="95"/>
+      <x:c r="AD42" s="95"/>
+      <x:c r="AE42" s="95"/>
+      <x:c r="AF42" s="95"/>
+      <x:c r="AG42" s="95"/>
+      <x:c r="AH42" s="95"/>
+      <x:c r="AI42" s="95"/>
+      <x:c r="AJ42" s="95"/>
+      <x:c r="AK42" s="95"/>
+      <x:c r="AL42" s="95"/>
+      <x:c r="AM42" s="95"/>
+      <x:c r="AN42" s="95"/>
+      <x:c r="AO42" s="95"/>
+      <x:c r="AP42" s="95"/>
+      <x:c r="AQ42" s="95"/>
+      <x:c r="AR42" s="95"/>
+      <x:c r="AS42" s="95"/>
+      <x:c r="AT42" s="95"/>
+      <x:c r="AU42" s="95"/>
+      <x:c r="AV42" s="95"/>
+      <x:c r="AW42" s="95"/>
+      <x:c r="AX42" s="95"/>
+      <x:c r="AY42" s="95"/>
+      <x:c r="AZ42" s="95"/>
+      <x:c r="BA42" s="95"/>
+      <x:c r="BB42" s="95"/>
+      <x:c r="BC42" s="95"/>
+      <x:c r="BD42" s="95"/>
+      <x:c r="BE42" s="95"/>
+      <x:c r="BF42" s="95"/>
+      <x:c r="BG42" s="95"/>
+      <x:c r="BH42" s="95"/>
+      <x:c r="BI42" s="95"/>
+      <x:c r="BJ42" s="95"/>
+      <x:c r="BK42" s="95"/>
+      <x:c r="BL42" s="95"/>
+      <x:c r="BM42" s="95"/>
+      <x:c r="BN42" s="95"/>
+      <x:c r="BO42" s="95"/>
+      <x:c r="BP42" s="95"/>
+      <x:c r="BQ42" s="95"/>
+      <x:c r="BR42" s="95"/>
+      <x:c r="BS42" s="95"/>
+      <x:c r="BT42" s="95"/>
+      <x:c r="BU42" s="95"/>
+      <x:c r="BV42" s="95"/>
+      <x:c r="BW42" s="95"/>
+      <x:c r="BX42" s="95"/>
+      <x:c r="BY42" s="95"/>
+      <x:c r="BZ42" s="95"/>
+      <x:c r="CA42" s="95"/>
+      <x:c r="CB42" s="95"/>
+      <x:c r="CC42" s="95"/>
+      <x:c r="CD42" s="95"/>
+      <x:c r="CE42" s="95"/>
+      <x:c r="CF42" s="95"/>
+      <x:c r="CG42" s="95"/>
+      <x:c r="CH42" s="95"/>
+      <x:c r="CI42" s="95"/>
+      <x:c r="CJ42" s="95"/>
+      <x:c r="CK42" s="95"/>
+      <x:c r="CL42" s="95"/>
+      <x:c r="CM42" s="95"/>
+      <x:c r="CN42" s="95"/>
+      <x:c r="CO42" s="95"/>
+      <x:c r="CP42" s="95"/>
+      <x:c r="CQ42" s="95"/>
+      <x:c r="CR42" s="95"/>
+      <x:c r="CS42" s="95"/>
+      <x:c r="CT42" s="95"/>
+      <x:c r="CU42" s="95"/>
+      <x:c r="CV42" s="96"/>
       <x:c r="CW42" s="1"/>
       <x:c r="CX42" s="1"/>
       <x:c r="CY42" s="1"/>
@@ -8145,105 +8356,105 @@
       <x:c r="A43" s="1"/>
       <x:c r="B43" s="27"/>
       <x:c r="C43" s="41"/>
-      <x:c r="D43" s="104" t="s">
-        <x:v>74</x:v>
+      <x:c r="D43" s="93" t="s">
+        <x:v>72</x:v>
       </x:c>
-      <x:c r="E43" s="56"/>
-      <x:c r="F43" s="57"/>
+      <x:c r="E43" s="119"/>
+      <x:c r="F43" s="119"/>
       <x:c r="G43" s="60"/>
       <x:c r="H43" s="60"/>
-      <x:c r="I43" s="105"/>
-      <x:c r="J43" s="106"/>
-      <x:c r="K43" s="106"/>
-      <x:c r="L43" s="106"/>
-      <x:c r="M43" s="106"/>
-      <x:c r="N43" s="106"/>
-      <x:c r="O43" s="106"/>
-      <x:c r="P43" s="106"/>
-      <x:c r="Q43" s="106"/>
-      <x:c r="R43" s="106"/>
-      <x:c r="S43" s="106"/>
-      <x:c r="T43" s="106"/>
-      <x:c r="U43" s="106"/>
-      <x:c r="V43" s="106"/>
-      <x:c r="W43" s="106"/>
-      <x:c r="X43" s="106"/>
-      <x:c r="Y43" s="106"/>
-      <x:c r="Z43" s="106"/>
-      <x:c r="AA43" s="106"/>
-      <x:c r="AB43" s="106"/>
-      <x:c r="AC43" s="106"/>
-      <x:c r="AD43" s="106"/>
-      <x:c r="AE43" s="106"/>
-      <x:c r="AF43" s="106"/>
-      <x:c r="AG43" s="106"/>
-      <x:c r="AH43" s="106"/>
-      <x:c r="AI43" s="106"/>
-      <x:c r="AJ43" s="106"/>
-      <x:c r="AK43" s="106"/>
-      <x:c r="AL43" s="106"/>
-      <x:c r="AM43" s="106"/>
-      <x:c r="AN43" s="106"/>
-      <x:c r="AO43" s="106"/>
-      <x:c r="AP43" s="106"/>
-      <x:c r="AQ43" s="106"/>
-      <x:c r="AR43" s="106"/>
-      <x:c r="AS43" s="106"/>
-      <x:c r="AT43" s="106"/>
-      <x:c r="AU43" s="106"/>
-      <x:c r="AV43" s="106"/>
-      <x:c r="AW43" s="106"/>
-      <x:c r="AX43" s="106"/>
-      <x:c r="AY43" s="106"/>
-      <x:c r="AZ43" s="106"/>
-      <x:c r="BA43" s="106"/>
-      <x:c r="BB43" s="106"/>
-      <x:c r="BC43" s="106"/>
-      <x:c r="BD43" s="106"/>
-      <x:c r="BE43" s="106"/>
-      <x:c r="BF43" s="106"/>
-      <x:c r="BG43" s="106"/>
-      <x:c r="BH43" s="106"/>
-      <x:c r="BI43" s="106"/>
-      <x:c r="BJ43" s="106"/>
-      <x:c r="BK43" s="106"/>
-      <x:c r="BL43" s="106"/>
-      <x:c r="BM43" s="106"/>
-      <x:c r="BN43" s="106"/>
-      <x:c r="BO43" s="106"/>
-      <x:c r="BP43" s="106"/>
-      <x:c r="BQ43" s="106"/>
-      <x:c r="BR43" s="106"/>
-      <x:c r="BS43" s="106"/>
-      <x:c r="BT43" s="106"/>
-      <x:c r="BU43" s="106"/>
-      <x:c r="BV43" s="106"/>
-      <x:c r="BW43" s="106"/>
-      <x:c r="BX43" s="106"/>
-      <x:c r="BY43" s="106"/>
-      <x:c r="BZ43" s="106"/>
-      <x:c r="CA43" s="106"/>
-      <x:c r="CB43" s="106"/>
-      <x:c r="CC43" s="106"/>
-      <x:c r="CD43" s="106"/>
-      <x:c r="CE43" s="106"/>
-      <x:c r="CF43" s="106"/>
-      <x:c r="CG43" s="106"/>
-      <x:c r="CH43" s="106"/>
-      <x:c r="CI43" s="106"/>
-      <x:c r="CJ43" s="106"/>
-      <x:c r="CK43" s="106"/>
-      <x:c r="CL43" s="106"/>
-      <x:c r="CM43" s="106"/>
-      <x:c r="CN43" s="106"/>
-      <x:c r="CO43" s="106"/>
-      <x:c r="CP43" s="106"/>
-      <x:c r="CQ43" s="106"/>
-      <x:c r="CR43" s="106"/>
-      <x:c r="CS43" s="106"/>
-      <x:c r="CT43" s="106"/>
-      <x:c r="CU43" s="106"/>
-      <x:c r="CV43" s="107"/>
+      <x:c r="I43" s="94"/>
+      <x:c r="J43" s="95"/>
+      <x:c r="K43" s="95"/>
+      <x:c r="L43" s="95"/>
+      <x:c r="M43" s="95"/>
+      <x:c r="N43" s="95"/>
+      <x:c r="O43" s="95"/>
+      <x:c r="P43" s="95"/>
+      <x:c r="Q43" s="95"/>
+      <x:c r="R43" s="95"/>
+      <x:c r="S43" s="95"/>
+      <x:c r="T43" s="95"/>
+      <x:c r="U43" s="95"/>
+      <x:c r="V43" s="95"/>
+      <x:c r="W43" s="95"/>
+      <x:c r="X43" s="95"/>
+      <x:c r="Y43" s="95"/>
+      <x:c r="Z43" s="95"/>
+      <x:c r="AA43" s="95"/>
+      <x:c r="AB43" s="95"/>
+      <x:c r="AC43" s="95"/>
+      <x:c r="AD43" s="95"/>
+      <x:c r="AE43" s="95"/>
+      <x:c r="AF43" s="95"/>
+      <x:c r="AG43" s="95"/>
+      <x:c r="AH43" s="95"/>
+      <x:c r="AI43" s="95"/>
+      <x:c r="AJ43" s="95"/>
+      <x:c r="AK43" s="95"/>
+      <x:c r="AL43" s="95"/>
+      <x:c r="AM43" s="95"/>
+      <x:c r="AN43" s="95"/>
+      <x:c r="AO43" s="95"/>
+      <x:c r="AP43" s="95"/>
+      <x:c r="AQ43" s="95"/>
+      <x:c r="AR43" s="95"/>
+      <x:c r="AS43" s="95"/>
+      <x:c r="AT43" s="95"/>
+      <x:c r="AU43" s="95"/>
+      <x:c r="AV43" s="95"/>
+      <x:c r="AW43" s="95"/>
+      <x:c r="AX43" s="95"/>
+      <x:c r="AY43" s="95"/>
+      <x:c r="AZ43" s="95"/>
+      <x:c r="BA43" s="95"/>
+      <x:c r="BB43" s="95"/>
+      <x:c r="BC43" s="95"/>
+      <x:c r="BD43" s="95"/>
+      <x:c r="BE43" s="95"/>
+      <x:c r="BF43" s="95"/>
+      <x:c r="BG43" s="95"/>
+      <x:c r="BH43" s="95"/>
+      <x:c r="BI43" s="95"/>
+      <x:c r="BJ43" s="95"/>
+      <x:c r="BK43" s="95"/>
+      <x:c r="BL43" s="95"/>
+      <x:c r="BM43" s="95"/>
+      <x:c r="BN43" s="95"/>
+      <x:c r="BO43" s="95"/>
+      <x:c r="BP43" s="95"/>
+      <x:c r="BQ43" s="95"/>
+      <x:c r="BR43" s="95"/>
+      <x:c r="BS43" s="95"/>
+      <x:c r="BT43" s="95"/>
+      <x:c r="BU43" s="95"/>
+      <x:c r="BV43" s="95"/>
+      <x:c r="BW43" s="95"/>
+      <x:c r="BX43" s="95"/>
+      <x:c r="BY43" s="95"/>
+      <x:c r="BZ43" s="95"/>
+      <x:c r="CA43" s="95"/>
+      <x:c r="CB43" s="95"/>
+      <x:c r="CC43" s="95"/>
+      <x:c r="CD43" s="95"/>
+      <x:c r="CE43" s="95"/>
+      <x:c r="CF43" s="95"/>
+      <x:c r="CG43" s="95"/>
+      <x:c r="CH43" s="95"/>
+      <x:c r="CI43" s="95"/>
+      <x:c r="CJ43" s="95"/>
+      <x:c r="CK43" s="95"/>
+      <x:c r="CL43" s="95"/>
+      <x:c r="CM43" s="95"/>
+      <x:c r="CN43" s="95"/>
+      <x:c r="CO43" s="95"/>
+      <x:c r="CP43" s="95"/>
+      <x:c r="CQ43" s="95"/>
+      <x:c r="CR43" s="95"/>
+      <x:c r="CS43" s="95"/>
+      <x:c r="CT43" s="95"/>
+      <x:c r="CU43" s="95"/>
+      <x:c r="CV43" s="96"/>
       <x:c r="CW43" s="1"/>
       <x:c r="CX43" s="1"/>
       <x:c r="CY43" s="1"/>
@@ -8405,105 +8616,105 @@
       <x:c r="A44" s="1"/>
       <x:c r="B44" s="27"/>
       <x:c r="C44" s="41"/>
-      <x:c r="D44" s="104" t="s">
-        <x:v>11</x:v>
+      <x:c r="D44" s="93" t="s">
+        <x:v>67</x:v>
       </x:c>
-      <x:c r="E44" s="56"/>
-      <x:c r="F44" s="57"/>
+      <x:c r="E44" s="119"/>
+      <x:c r="F44" s="119"/>
       <x:c r="G44" s="60"/>
       <x:c r="H44" s="60"/>
-      <x:c r="I44" s="105"/>
-      <x:c r="J44" s="106"/>
-      <x:c r="K44" s="106"/>
-      <x:c r="L44" s="106"/>
-      <x:c r="M44" s="106"/>
-      <x:c r="N44" s="106"/>
-      <x:c r="O44" s="106"/>
-      <x:c r="P44" s="106"/>
-      <x:c r="Q44" s="106"/>
-      <x:c r="R44" s="106"/>
-      <x:c r="S44" s="106"/>
-      <x:c r="T44" s="106"/>
-      <x:c r="U44" s="106"/>
-      <x:c r="V44" s="106"/>
-      <x:c r="W44" s="106"/>
-      <x:c r="X44" s="106"/>
-      <x:c r="Y44" s="106"/>
-      <x:c r="Z44" s="106"/>
-      <x:c r="AA44" s="106"/>
-      <x:c r="AB44" s="106"/>
-      <x:c r="AC44" s="106"/>
-      <x:c r="AD44" s="106"/>
-      <x:c r="AE44" s="106"/>
-      <x:c r="AF44" s="106"/>
-      <x:c r="AG44" s="106"/>
-      <x:c r="AH44" s="106"/>
-      <x:c r="AI44" s="106"/>
-      <x:c r="AJ44" s="106"/>
-      <x:c r="AK44" s="106"/>
-      <x:c r="AL44" s="106"/>
-      <x:c r="AM44" s="106"/>
-      <x:c r="AN44" s="106"/>
-      <x:c r="AO44" s="106"/>
-      <x:c r="AP44" s="106"/>
-      <x:c r="AQ44" s="106"/>
-      <x:c r="AR44" s="106"/>
-      <x:c r="AS44" s="106"/>
-      <x:c r="AT44" s="106"/>
-      <x:c r="AU44" s="106"/>
-      <x:c r="AV44" s="106"/>
-      <x:c r="AW44" s="106"/>
-      <x:c r="AX44" s="106"/>
-      <x:c r="AY44" s="106"/>
-      <x:c r="AZ44" s="106"/>
-      <x:c r="BA44" s="106"/>
-      <x:c r="BB44" s="106"/>
-      <x:c r="BC44" s="106"/>
-      <x:c r="BD44" s="106"/>
-      <x:c r="BE44" s="106"/>
-      <x:c r="BF44" s="106"/>
-      <x:c r="BG44" s="106"/>
-      <x:c r="BH44" s="106"/>
-      <x:c r="BI44" s="106"/>
-      <x:c r="BJ44" s="106"/>
-      <x:c r="BK44" s="106"/>
-      <x:c r="BL44" s="106"/>
-      <x:c r="BM44" s="106"/>
-      <x:c r="BN44" s="106"/>
-      <x:c r="BO44" s="106"/>
-      <x:c r="BP44" s="106"/>
-      <x:c r="BQ44" s="106"/>
-      <x:c r="BR44" s="106"/>
-      <x:c r="BS44" s="106"/>
-      <x:c r="BT44" s="106"/>
-      <x:c r="BU44" s="106"/>
-      <x:c r="BV44" s="106"/>
-      <x:c r="BW44" s="106"/>
-      <x:c r="BX44" s="106"/>
-      <x:c r="BY44" s="106"/>
-      <x:c r="BZ44" s="106"/>
-      <x:c r="CA44" s="106"/>
-      <x:c r="CB44" s="106"/>
-      <x:c r="CC44" s="106"/>
-      <x:c r="CD44" s="106"/>
-      <x:c r="CE44" s="106"/>
-      <x:c r="CF44" s="106"/>
-      <x:c r="CG44" s="106"/>
-      <x:c r="CH44" s="106"/>
-      <x:c r="CI44" s="106"/>
-      <x:c r="CJ44" s="106"/>
-      <x:c r="CK44" s="106"/>
-      <x:c r="CL44" s="106"/>
-      <x:c r="CM44" s="106"/>
-      <x:c r="CN44" s="106"/>
-      <x:c r="CO44" s="106"/>
-      <x:c r="CP44" s="106"/>
-      <x:c r="CQ44" s="106"/>
-      <x:c r="CR44" s="106"/>
-      <x:c r="CS44" s="106"/>
-      <x:c r="CT44" s="106"/>
-      <x:c r="CU44" s="106"/>
-      <x:c r="CV44" s="107"/>
+      <x:c r="I44" s="94"/>
+      <x:c r="J44" s="95"/>
+      <x:c r="K44" s="95"/>
+      <x:c r="L44" s="95"/>
+      <x:c r="M44" s="95"/>
+      <x:c r="N44" s="95"/>
+      <x:c r="O44" s="95"/>
+      <x:c r="P44" s="95"/>
+      <x:c r="Q44" s="95"/>
+      <x:c r="R44" s="95"/>
+      <x:c r="S44" s="95"/>
+      <x:c r="T44" s="95"/>
+      <x:c r="U44" s="95"/>
+      <x:c r="V44" s="95"/>
+      <x:c r="W44" s="95"/>
+      <x:c r="X44" s="95"/>
+      <x:c r="Y44" s="95"/>
+      <x:c r="Z44" s="95"/>
+      <x:c r="AA44" s="95"/>
+      <x:c r="AB44" s="95"/>
+      <x:c r="AC44" s="95"/>
+      <x:c r="AD44" s="95"/>
+      <x:c r="AE44" s="95"/>
+      <x:c r="AF44" s="95"/>
+      <x:c r="AG44" s="95"/>
+      <x:c r="AH44" s="95"/>
+      <x:c r="AI44" s="95"/>
+      <x:c r="AJ44" s="95"/>
+      <x:c r="AK44" s="95"/>
+      <x:c r="AL44" s="95"/>
+      <x:c r="AM44" s="95"/>
+      <x:c r="AN44" s="95"/>
+      <x:c r="AO44" s="95"/>
+      <x:c r="AP44" s="95"/>
+      <x:c r="AQ44" s="95"/>
+      <x:c r="AR44" s="95"/>
+      <x:c r="AS44" s="95"/>
+      <x:c r="AT44" s="95"/>
+      <x:c r="AU44" s="95"/>
+      <x:c r="AV44" s="95"/>
+      <x:c r="AW44" s="95"/>
+      <x:c r="AX44" s="95"/>
+      <x:c r="AY44" s="95"/>
+      <x:c r="AZ44" s="95"/>
+      <x:c r="BA44" s="95"/>
+      <x:c r="BB44" s="95"/>
+      <x:c r="BC44" s="95"/>
+      <x:c r="BD44" s="95"/>
+      <x:c r="BE44" s="95"/>
+      <x:c r="BF44" s="95"/>
+      <x:c r="BG44" s="95"/>
+      <x:c r="BH44" s="95"/>
+      <x:c r="BI44" s="95"/>
+      <x:c r="BJ44" s="95"/>
+      <x:c r="BK44" s="95"/>
+      <x:c r="BL44" s="95"/>
+      <x:c r="BM44" s="95"/>
+      <x:c r="BN44" s="95"/>
+      <x:c r="BO44" s="95"/>
+      <x:c r="BP44" s="95"/>
+      <x:c r="BQ44" s="95"/>
+      <x:c r="BR44" s="95"/>
+      <x:c r="BS44" s="95"/>
+      <x:c r="BT44" s="95"/>
+      <x:c r="BU44" s="95"/>
+      <x:c r="BV44" s="95"/>
+      <x:c r="BW44" s="95"/>
+      <x:c r="BX44" s="95"/>
+      <x:c r="BY44" s="95"/>
+      <x:c r="BZ44" s="95"/>
+      <x:c r="CA44" s="95"/>
+      <x:c r="CB44" s="95"/>
+      <x:c r="CC44" s="95"/>
+      <x:c r="CD44" s="95"/>
+      <x:c r="CE44" s="95"/>
+      <x:c r="CF44" s="95"/>
+      <x:c r="CG44" s="95"/>
+      <x:c r="CH44" s="95"/>
+      <x:c r="CI44" s="95"/>
+      <x:c r="CJ44" s="95"/>
+      <x:c r="CK44" s="95"/>
+      <x:c r="CL44" s="95"/>
+      <x:c r="CM44" s="95"/>
+      <x:c r="CN44" s="95"/>
+      <x:c r="CO44" s="95"/>
+      <x:c r="CP44" s="95"/>
+      <x:c r="CQ44" s="95"/>
+      <x:c r="CR44" s="95"/>
+      <x:c r="CS44" s="95"/>
+      <x:c r="CT44" s="95"/>
+      <x:c r="CU44" s="95"/>
+      <x:c r="CV44" s="96"/>
       <x:c r="CW44" s="1"/>
       <x:c r="CX44" s="1"/>
       <x:c r="CY44" s="1"/>
@@ -8663,14 +8874,16 @@
     </x:row>
     <x:row r="45" spans="2:100" ht="14.1" customHeight="1">
       <x:c r="B45" s="28"/>
-      <x:c r="C45" s="108" t="s">
-        <x:v>14</x:v>
+      <x:c r="C45" s="97" t="s">
+        <x:v>3</x:v>
       </x:c>
-      <x:c r="D45" s="110" t="s">
-        <x:v>75</x:v>
+      <x:c r="D45" s="98" t="s">
+        <x:v>68</x:v>
       </x:c>
-      <x:c r="E45" s="109"/>
-      <x:c r="F45" s="59"/>
+      <x:c r="E45" s="109" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F45" s="109"/>
       <x:c r="G45" s="60"/>
       <x:c r="H45" s="60"/>
       <x:c r="I45" s="81"/>
@@ -8775,13 +8988,13 @@
     <x:row r="52" ht="14.449999999999999" customHeight="1"/>
     <x:row r="54" spans="2:100">
       <x:c r="B54" s="32" t="s">
-        <x:v>7</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C54" s="32" t="s">
-        <x:v>22</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D54" s="45" t="s">
-        <x:v>28</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E54" s="54" t="s">
         <x:v>48</x:v>
@@ -8791,7 +9004,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="H54" s="78" t="s">
-        <x:v>9</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="I54" s="79"/>
       <x:c r="J54" s="66"/>
@@ -8890,7 +9103,7 @@
       <x:c r="B55" s="33"/>
       <x:c r="C55" s="33"/>
       <x:c r="D55" s="24" t="s">
-        <x:v>61</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E55" s="56"/>
       <x:c r="F55" s="57"/>
@@ -8993,7 +9206,7 @@
       <x:c r="B56" s="33"/>
       <x:c r="C56" s="33"/>
       <x:c r="D56" s="23" t="s">
-        <x:v>53</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E56" s="56"/>
       <x:c r="F56" s="57"/>
@@ -9096,7 +9309,7 @@
       <x:c r="B57" s="33"/>
       <x:c r="C57" s="34"/>
       <x:c r="D57" s="46" t="s">
-        <x:v>55</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E57" s="58"/>
       <x:c r="F57" s="59"/>
@@ -9104,7 +9317,7 @@
         <x:v>0.29999999999999999</x:v>
       </x:c>
       <x:c r="H57" s="78" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="I57" s="85"/>
       <x:c r="J57" s="68"/>
@@ -9202,13 +9415,13 @@
     <x:row r="58" spans="2:100">
       <x:c r="B58" s="33"/>
       <x:c r="C58" s="32" t="s">
-        <x:v>20</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D58" s="24" t="s">
         <x:v>27</x:v>
       </x:c>
       <x:c r="E58" s="54" t="s">
-        <x:v>42</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F58" s="55"/>
       <x:c r="G58" s="72"/>
@@ -9310,7 +9523,7 @@
       <x:c r="B59" s="33"/>
       <x:c r="C59" s="33"/>
       <x:c r="D59" s="21" t="s">
-        <x:v>36</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="E59" s="56"/>
       <x:c r="F59" s="57"/>
@@ -9413,7 +9626,7 @@
       <x:c r="B60" s="33"/>
       <x:c r="C60" s="33"/>
       <x:c r="D60" s="21" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E60" s="56"/>
       <x:c r="F60" s="57"/>
@@ -9516,7 +9729,7 @@
       <x:c r="B61" s="33"/>
       <x:c r="C61" s="34"/>
       <x:c r="D61" s="22" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E61" s="58"/>
       <x:c r="F61" s="59"/>
@@ -9618,13 +9831,13 @@
     <x:row r="62" spans="2:100">
       <x:c r="B62" s="33"/>
       <x:c r="C62" s="32" t="s">
-        <x:v>21</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D62" s="45" t="s">
-        <x:v>52</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="E62" s="54" t="s">
-        <x:v>50</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="F62" s="55"/>
       <x:c r="G62" s="72"/>
@@ -9726,7 +9939,7 @@
       <x:c r="B63" s="33"/>
       <x:c r="C63" s="33"/>
       <x:c r="D63" s="24" t="s">
-        <x:v>37</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E63" s="56"/>
       <x:c r="F63" s="57"/>
@@ -10030,13 +10243,13 @@
     <x:row r="66" spans="2:100">
       <x:c r="B66" s="33"/>
       <x:c r="C66" s="32" t="s">
-        <x:v>46</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="D66" s="24" t="s">
-        <x:v>23</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E66" s="54" t="s">
-        <x:v>51</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F66" s="55"/>
       <x:c r="G66" s="72"/>
@@ -10138,7 +10351,7 @@
       <x:c r="B67" s="33"/>
       <x:c r="C67" s="34"/>
       <x:c r="D67" s="21" t="s">
-        <x:v>54</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E67" s="56"/>
       <x:c r="F67" s="57"/>
@@ -10240,10 +10453,10 @@
     <x:row r="68" spans="2:100">
       <x:c r="B68" s="33"/>
       <x:c r="C68" s="32" t="s">
-        <x:v>63</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D68" s="21" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E68" s="54"/>
       <x:c r="F68" s="55"/>
@@ -10346,7 +10559,7 @@
       <x:c r="B69" s="34"/>
       <x:c r="C69" s="34"/>
       <x:c r="D69" s="22" t="s">
-        <x:v>35</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="E69" s="58"/>
       <x:c r="F69" s="59"/>
@@ -10446,12 +10659,18 @@
       <x:c r="CV69" s="8"/>
     </x:row>
   </x:sheetData>
-  <x:mergeCells count="5">
+  <x:mergeCells count="11">
     <x:mergeCell ref="E3:F5"/>
     <x:mergeCell ref="B1:AZ1"/>
     <x:mergeCell ref="B3:B5"/>
     <x:mergeCell ref="C3:C5"/>
     <x:mergeCell ref="D3:D5"/>
+    <x:mergeCell ref="E45:F45"/>
+    <x:mergeCell ref="E19:F22"/>
+    <x:mergeCell ref="E24:F28"/>
+    <x:mergeCell ref="E29:F34"/>
+    <x:mergeCell ref="E36:F39"/>
+    <x:mergeCell ref="E40:F44"/>
   </x:mergeCells>
   <x:pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>
   <x:pageSetup paperSize="9" scale="75" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="landscape" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>

--- a/schedule/temp.xlsx
+++ b/schedule/temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlseh\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BB95B9-EE71-4504-AACB-C2F70B8CD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9231DF-402E-4524-A128-80449317CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="개발일정" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="86">
   <si>
     <t>4시간</t>
   </si>
@@ -112,9 +112,6 @@
     <t>IOCP 서버 프레임워크 공부 및 작성(60)</t>
   </si>
   <si>
-    <t>클라이언트 프레임워크 공부 및 로그인 적용(15)</t>
-  </si>
-  <si>
     <t>서버에서 사용할 더미 맵 데이터 익스포팅(20)</t>
   </si>
   <si>
@@ -143,9 +140,6 @@
   </si>
   <si>
     <t>애니메이션 정보 로드(25)</t>
-  </si>
-  <si>
-    <t>16시간</t>
   </si>
   <si>
     <t>3월~6월</t>
@@ -282,6 +276,18 @@
   </si>
   <si>
     <t>하루별 평균 작업 시간 오승담(평일 4~5 / 주말 6) 임보배 (4~5 / 3월~5월 6) 신동원(4~5)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>26시간</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 적용(15)</t>
+    <phoneticPr fontId="25" type="noConversion"/>
+  </si>
+  <si>
+    <t>2시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -479,7 +485,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +720,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1616,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1941,6 +1953,36 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1953,35 +1995,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2685,104 +2703,104 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AZ1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O62" sqref="O62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.5546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.5546875" style="3" customWidth="1"/>
-    <col min="9" max="100" width="2.77734375" style="1" customWidth="1"/>
-    <col min="101" max="256" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="18.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" style="3" customWidth="1"/>
+    <col min="9" max="100" width="2.75" style="1" customWidth="1"/>
+    <col min="101" max="256" width="8.9140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="118" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="118"/>
-      <c r="F1" s="118"/>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="118"/>
-      <c r="K1" s="118"/>
-      <c r="L1" s="118"/>
-      <c r="M1" s="118"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
-      <c r="R1" s="118"/>
-      <c r="S1" s="118"/>
-      <c r="T1" s="118"/>
-      <c r="U1" s="118"/>
-      <c r="V1" s="118"/>
-      <c r="W1" s="118"/>
-      <c r="X1" s="118"/>
-      <c r="Y1" s="118"/>
-      <c r="Z1" s="118"/>
-      <c r="AA1" s="118"/>
-      <c r="AB1" s="118"/>
-      <c r="AC1" s="118"/>
-      <c r="AD1" s="118"/>
-      <c r="AE1" s="118"/>
-      <c r="AF1" s="118"/>
-      <c r="AG1" s="118"/>
-      <c r="AH1" s="118"/>
-      <c r="AI1" s="118"/>
-      <c r="AJ1" s="118"/>
-      <c r="AK1" s="118"/>
-      <c r="AL1" s="118"/>
-      <c r="AM1" s="118"/>
-      <c r="AN1" s="118"/>
-      <c r="AO1" s="118"/>
-      <c r="AP1" s="118"/>
-      <c r="AQ1" s="118"/>
-      <c r="AR1" s="118"/>
-      <c r="AS1" s="118"/>
-      <c r="AT1" s="118"/>
-      <c r="AU1" s="118"/>
-      <c r="AV1" s="118"/>
-      <c r="AW1" s="118"/>
-      <c r="AX1" s="118"/>
-      <c r="AY1" s="118"/>
-      <c r="AZ1" s="118"/>
+    <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="114"/>
+      <c r="AB1" s="114"/>
+      <c r="AC1" s="114"/>
+      <c r="AD1" s="114"/>
+      <c r="AE1" s="114"/>
+      <c r="AF1" s="114"/>
+      <c r="AG1" s="114"/>
+      <c r="AH1" s="114"/>
+      <c r="AI1" s="114"/>
+      <c r="AJ1" s="114"/>
+      <c r="AK1" s="114"/>
+      <c r="AL1" s="114"/>
+      <c r="AM1" s="114"/>
+      <c r="AN1" s="114"/>
+      <c r="AO1" s="114"/>
+      <c r="AP1" s="114"/>
+      <c r="AQ1" s="114"/>
+      <c r="AR1" s="114"/>
+      <c r="AS1" s="114"/>
+      <c r="AT1" s="114"/>
+      <c r="AU1" s="114"/>
+      <c r="AV1" s="114"/>
+      <c r="AW1" s="114"/>
+      <c r="AX1" s="114"/>
+      <c r="AY1" s="114"/>
+      <c r="AZ1" s="114"/>
     </row>
-    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AZ2" s="2"/>
     </row>
-    <row r="3" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="119" t="s">
+    <row r="3" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="115" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="112" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="113"/>
+      <c r="E3" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="109"/>
       <c r="G3" s="69" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I3" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="51"/>
       <c r="K3" s="51"/>
@@ -2828,12 +2846,12 @@
       <c r="AY3" s="51"/>
       <c r="AZ3" s="48"/>
     </row>
-    <row r="4" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="120"/>
-      <c r="E4" s="114"/>
-      <c r="F4" s="115"/>
+    <row r="4" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="116"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="110"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="70"/>
       <c r="H4" s="63"/>
       <c r="I4" s="49"/>
@@ -2881,12 +2899,12 @@
       <c r="AY4" s="52"/>
       <c r="AZ4" s="50"/>
     </row>
-    <row r="5" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="117"/>
+    <row r="5" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="117"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="71"/>
       <c r="H5" s="64"/>
       <c r="I5" s="49"/>
@@ -2934,7 +2952,7 @@
       <c r="AY5" s="52"/>
       <c r="AZ5" s="50"/>
     </row>
-    <row r="6" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
         <v>5</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="54"/>
       <c r="F6" s="55"/>
@@ -3041,11 +3059,11 @@
       <c r="CU6" s="11"/>
       <c r="CV6" s="12"/>
     </row>
-    <row r="7" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="38"/>
       <c r="C7" s="38"/>
       <c r="D7" s="43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="57"/>
@@ -3144,15 +3162,15 @@
       <c r="CU7" s="5"/>
       <c r="CV7" s="13"/>
     </row>
-    <row r="8" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
       <c r="D8" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E8" s="56"/>
       <c r="F8" s="57" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="89"/>
@@ -3249,11 +3267,11 @@
       <c r="CU8" s="5"/>
       <c r="CV8" s="13"/>
     </row>
-    <row r="9" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="38"/>
       <c r="C9" s="39"/>
       <c r="D9" s="44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E9" s="58"/>
       <c r="F9" s="59"/>
@@ -3352,13 +3370,13 @@
       <c r="CU9" s="5"/>
       <c r="CV9" s="13"/>
     </row>
-    <row r="10" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="38"/>
       <c r="C10" s="37" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="54"/>
       <c r="F10" s="55"/>
@@ -3461,15 +3479,15 @@
       <c r="CU10" s="5"/>
       <c r="CV10" s="13"/>
     </row>
-    <row r="11" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="38"/>
       <c r="C11" s="38"/>
       <c r="D11" s="43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="56"/>
       <c r="F11" s="57" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="53">
         <v>20</v>
@@ -3570,11 +3588,11 @@
       <c r="CU11" s="5"/>
       <c r="CV11" s="13"/>
     </row>
-    <row r="12" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="56"/>
       <c r="F12" s="57"/>
@@ -3673,7 +3691,7 @@
       <c r="CU12" s="5"/>
       <c r="CV12" s="13"/>
     </row>
-    <row r="13" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="39"/>
       <c r="C13" s="39"/>
       <c r="D13" s="44" t="s">
@@ -3776,25 +3794,25 @@
       <c r="CU13" s="6"/>
       <c r="CV13" s="15"/>
     </row>
-    <row r="14" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="109" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="109"/>
+      <c r="F19" s="119"/>
       <c r="G19" s="61">
         <v>100</v>
       </c>
@@ -3894,16 +3912,16 @@
       <c r="CU19" s="11"/>
       <c r="CV19" s="12"/>
     </row>
-    <row r="20" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="27"/>
       <c r="C20" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
       <c r="G20" s="60">
         <v>100</v>
       </c>
@@ -4001,14 +4019,14 @@
       <c r="CU20" s="5"/>
       <c r="CV20" s="13"/>
     </row>
-    <row r="21" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
       <c r="C21" s="30"/>
       <c r="D21" s="75" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
+        <v>72</v>
+      </c>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
       <c r="G21" s="60"/>
       <c r="H21" s="104">
         <v>0.27777777777777779</v>
@@ -4106,14 +4124,14 @@
       <c r="CU21" s="5"/>
       <c r="CV21" s="13"/>
     </row>
-    <row r="22" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="27"/>
       <c r="C22" s="30"/>
       <c r="D22" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
+        <v>66</v>
+      </c>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
       <c r="G22" s="60">
         <v>80</v>
       </c>
@@ -4211,7 +4229,7 @@
       <c r="CU22" s="5"/>
       <c r="CV22" s="13"/>
     </row>
-    <row r="23" spans="2:100" s="3" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:100" s="3" customFormat="1" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
       <c r="C23" s="31"/>
       <c r="D23" s="76"/>
@@ -4312,18 +4330,18 @@
       <c r="CU23" s="5"/>
       <c r="CV23" s="13"/>
     </row>
-    <row r="24" spans="2:100" s="3" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:100" s="3" customFormat="1" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="27"/>
       <c r="C24" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="E24" s="110" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="110"/>
+      <c r="F24" s="120"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
       <c r="I24" s="77"/>
@@ -4419,14 +4437,14 @@
       <c r="CU24" s="5"/>
       <c r="CV24" s="13"/>
     </row>
-    <row r="25" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
       <c r="D25" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="110"/>
-      <c r="F25" s="110"/>
+        <v>62</v>
+      </c>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="77"/>
@@ -4522,14 +4540,14 @@
       <c r="CU25" s="5"/>
       <c r="CV25" s="13"/>
     </row>
-    <row r="26" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
       <c r="D26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
+        <v>68</v>
+      </c>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="77"/>
@@ -4625,14 +4643,14 @@
       <c r="CU26" s="5"/>
       <c r="CV26" s="13"/>
     </row>
-    <row r="27" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
       <c r="D27" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="110"/>
-      <c r="F27" s="110"/>
+        <v>55</v>
+      </c>
+      <c r="E27" s="120"/>
+      <c r="F27" s="120"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
       <c r="I27" s="77"/>
@@ -4728,14 +4746,14 @@
       <c r="CU27" s="5"/>
       <c r="CV27" s="13"/>
     </row>
-    <row r="28" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="27"/>
       <c r="C28" s="28"/>
       <c r="D28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" s="110"/>
-      <c r="F28" s="110"/>
+        <v>63</v>
+      </c>
+      <c r="E28" s="120"/>
+      <c r="F28" s="120"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
       <c r="I28" s="77"/>
@@ -4831,18 +4849,18 @@
       <c r="CU28" s="5"/>
       <c r="CV28" s="13"/>
     </row>
-    <row r="29" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
       <c r="C29" s="26" t="s">
         <v>6</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="109" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="109"/>
+      <c r="F29" s="119"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
       <c r="I29" s="77"/>
@@ -4938,14 +4956,14 @@
       <c r="CU29" s="5"/>
       <c r="CV29" s="13"/>
     </row>
-    <row r="30" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="27"/>
       <c r="C30" s="27"/>
       <c r="D30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
+        <v>71</v>
+      </c>
+      <c r="E30" s="119"/>
+      <c r="F30" s="119"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
       <c r="I30" s="77"/>
@@ -5041,14 +5059,14 @@
       <c r="CU30" s="5"/>
       <c r="CV30" s="13"/>
     </row>
-    <row r="31" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
+        <v>75</v>
+      </c>
+      <c r="E31" s="119"/>
+      <c r="F31" s="119"/>
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="77"/>
@@ -5144,14 +5162,14 @@
       <c r="CU31" s="5"/>
       <c r="CV31" s="13"/>
     </row>
-    <row r="32" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
       <c r="D32" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="109"/>
-      <c r="F32" s="109"/>
+        <v>56</v>
+      </c>
+      <c r="E32" s="119"/>
+      <c r="F32" s="119"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="77"/>
@@ -5247,14 +5265,14 @@
       <c r="CU32" s="5"/>
       <c r="CV32" s="13"/>
     </row>
-    <row r="33" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
       <c r="D33" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
+        <v>57</v>
+      </c>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
       <c r="I33" s="77"/>
@@ -5350,14 +5368,14 @@
       <c r="CU33" s="5"/>
       <c r="CV33" s="13"/>
     </row>
-    <row r="34" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:100" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
       <c r="D34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
+      <c r="E34" s="119"/>
+      <c r="F34" s="119"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
       <c r="I34" s="77"/>
@@ -5453,7 +5471,7 @@
       <c r="CU34" s="5"/>
       <c r="CV34" s="13"/>
     </row>
-    <row r="35" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:100" ht="0" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
       <c r="C35" s="28"/>
       <c r="D35" s="18"/>
@@ -5554,18 +5572,18 @@
       <c r="CU35" s="5"/>
       <c r="CV35" s="13"/>
     </row>
-    <row r="36" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:100" ht="14.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="27"/>
       <c r="C36" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="E36" s="120" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="110"/>
+      <c r="F36" s="120"/>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
       <c r="I36" s="80"/>
@@ -5661,14 +5679,14 @@
       <c r="CU36" s="4"/>
       <c r="CV36" s="10"/>
     </row>
-    <row r="37" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
       <c r="C37" s="41"/>
       <c r="D37" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="110"/>
-      <c r="F37" s="110"/>
+        <v>39</v>
+      </c>
+      <c r="E37" s="120"/>
+      <c r="F37" s="120"/>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
       <c r="I37" s="80"/>
@@ -5764,14 +5782,14 @@
       <c r="CU37" s="4"/>
       <c r="CV37" s="10"/>
     </row>
-    <row r="38" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="27"/>
       <c r="C38" s="41"/>
       <c r="D38" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="110"/>
-      <c r="F38" s="110"/>
+        <v>69</v>
+      </c>
+      <c r="E38" s="120"/>
+      <c r="F38" s="120"/>
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
       <c r="I38" s="80"/>
@@ -5867,14 +5885,14 @@
       <c r="CU38" s="4"/>
       <c r="CV38" s="10"/>
     </row>
-    <row r="39" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
       <c r="C39" s="41"/>
       <c r="D39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E39" s="110"/>
-      <c r="F39" s="110"/>
+        <v>70</v>
+      </c>
+      <c r="E39" s="120"/>
+      <c r="F39" s="120"/>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
       <c r="I39" s="80"/>
@@ -5970,18 +5988,18 @@
       <c r="CU39" s="4"/>
       <c r="CV39" s="10"/>
     </row>
-    <row r="40" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="27"/>
       <c r="C40" s="40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D40" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="111" t="s">
-        <v>60</v>
-      </c>
-      <c r="F40" s="111"/>
+      <c r="E40" s="121" t="s">
+        <v>58</v>
+      </c>
+      <c r="F40" s="121"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60"/>
       <c r="I40" s="80"/>
@@ -6077,14 +6095,14 @@
       <c r="CU40" s="4"/>
       <c r="CV40" s="10"/>
     </row>
-    <row r="41" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
       <c r="C41" s="41"/>
       <c r="D41" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
+        <v>59</v>
+      </c>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
       <c r="I41" s="80"/>
@@ -6180,14 +6198,14 @@
       <c r="CU41" s="4"/>
       <c r="CV41" s="10"/>
     </row>
-    <row r="42" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="27"/>
       <c r="C42" s="41"/>
       <c r="D42" s="91" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
+        <v>64</v>
+      </c>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
       <c r="I42" s="92"/>
@@ -6283,14 +6301,14 @@
       <c r="CU42" s="93"/>
       <c r="CV42" s="94"/>
     </row>
-    <row r="43" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="27"/>
       <c r="C43" s="41"/>
       <c r="D43" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="E43" s="111"/>
-      <c r="F43" s="111"/>
+        <v>65</v>
+      </c>
+      <c r="E43" s="121"/>
+      <c r="F43" s="121"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="92"/>
@@ -6386,14 +6404,14 @@
       <c r="CU43" s="93"/>
       <c r="CV43" s="94"/>
     </row>
-    <row r="44" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="27"/>
       <c r="C44" s="41"/>
       <c r="D44" s="91" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
+        <v>60</v>
+      </c>
+      <c r="E44" s="121"/>
+      <c r="F44" s="121"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="92"/>
@@ -6489,18 +6507,18 @@
       <c r="CU44" s="93"/>
       <c r="CV44" s="94"/>
     </row>
-    <row r="45" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="28"/>
       <c r="C45" s="95" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="108" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="108"/>
+      <c r="F45" s="118"/>
       <c r="G45" s="60"/>
       <c r="H45" s="60"/>
       <c r="I45" s="81"/>
@@ -6596,14 +6614,14 @@
       <c r="CU45" s="7"/>
       <c r="CV45" s="8"/>
     </row>
-    <row r="46" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" spans="2:100" ht="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" spans="2:100" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:100" ht="14.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:100" ht="14.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B54" s="32" t="s">
         <v>2</v>
       </c>
@@ -6614,7 +6632,7 @@
         <v>28</v>
       </c>
       <c r="E54" s="54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F54" s="55"/>
       <c r="G54" s="73">
@@ -6716,11 +6734,11 @@
       <c r="CU54" s="16"/>
       <c r="CV54" s="9"/>
     </row>
-    <row r="55" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B55" s="33"/>
       <c r="C55" s="33"/>
       <c r="D55" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E55" s="56"/>
       <c r="F55" s="57"/>
@@ -6819,24 +6837,28 @@
       <c r="CU55" s="4"/>
       <c r="CV55" s="10"/>
     </row>
-    <row r="56" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B56" s="33"/>
       <c r="C56" s="33"/>
       <c r="D56" s="23" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="E56" s="56"/>
       <c r="F56" s="57"/>
-      <c r="G56" s="72"/>
-      <c r="H56" s="78"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="G56" s="73">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="I56" s="123"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="122"/>
+      <c r="M56" s="122"/>
+      <c r="N56" s="122"/>
+      <c r="O56" s="122"/>
+      <c r="P56" s="122"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
@@ -6922,7 +6944,7 @@
       <c r="CU56" s="4"/>
       <c r="CV56" s="10"/>
     </row>
-    <row r="57" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B57" s="33"/>
       <c r="C57" s="34"/>
       <c r="D57" s="46" t="s">
@@ -6931,10 +6953,10 @@
       <c r="E57" s="58"/>
       <c r="F57" s="59"/>
       <c r="G57" s="73">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H57" s="78" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
       <c r="I57" s="85"/>
       <c r="J57" s="68"/>
@@ -6942,12 +6964,12 @@
       <c r="L57" s="68"/>
       <c r="M57" s="68"/>
       <c r="N57" s="68"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
-      <c r="R57" s="67"/>
-      <c r="S57" s="67"/>
-      <c r="T57" s="67"/>
+      <c r="O57" s="68"/>
+      <c r="P57" s="68"/>
+      <c r="Q57" s="68"/>
+      <c r="R57" s="68"/>
+      <c r="S57" s="68"/>
+      <c r="T57" s="68"/>
       <c r="U57" s="67"/>
       <c r="V57" s="67"/>
       <c r="W57" s="67"/>
@@ -7029,7 +7051,7 @@
       <c r="CU57" s="7"/>
       <c r="CV57" s="8"/>
     </row>
-    <row r="58" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
       <c r="C58" s="32" t="s">
         <v>15</v>
@@ -7038,7 +7060,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F58" s="55"/>
       <c r="G58" s="72"/>
@@ -7136,7 +7158,7 @@
       <c r="CU58" s="83"/>
       <c r="CV58" s="84"/>
     </row>
-    <row r="59" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
       <c r="C59" s="33"/>
       <c r="D59" s="21" t="s">
@@ -7239,7 +7261,7 @@
       <c r="CU59" s="4"/>
       <c r="CV59" s="10"/>
     </row>
-    <row r="60" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B60" s="33"/>
       <c r="C60" s="33"/>
       <c r="D60" s="21" t="s">
@@ -7342,7 +7364,7 @@
       <c r="CU60" s="4"/>
       <c r="CV60" s="10"/>
     </row>
-    <row r="61" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B61" s="33"/>
       <c r="C61" s="34"/>
       <c r="D61" s="22" t="s">
@@ -7445,16 +7467,16 @@
       <c r="CU61" s="7"/>
       <c r="CV61" s="8"/>
     </row>
-    <row r="62" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
       <c r="C62" s="32" t="s">
         <v>16</v>
       </c>
       <c r="D62" s="45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E62" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F62" s="55"/>
       <c r="G62" s="72"/>
@@ -7552,7 +7574,7 @@
       <c r="CU62" s="83"/>
       <c r="CV62" s="84"/>
     </row>
-    <row r="63" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B63" s="33"/>
       <c r="C63" s="33"/>
       <c r="D63" s="24" t="s">
@@ -7655,7 +7677,7 @@
       <c r="CU63" s="4"/>
       <c r="CV63" s="10"/>
     </row>
-    <row r="64" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B64" s="33"/>
       <c r="C64" s="33"/>
       <c r="D64" s="23"/>
@@ -7756,7 +7778,7 @@
       <c r="CU64" s="4"/>
       <c r="CV64" s="10"/>
     </row>
-    <row r="65" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B65" s="33"/>
       <c r="C65" s="34"/>
       <c r="D65" s="46"/>
@@ -7857,16 +7879,16 @@
       <c r="CU65" s="7"/>
       <c r="CV65" s="8"/>
     </row>
-    <row r="66" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B66" s="33"/>
       <c r="C66" s="32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F66" s="55"/>
       <c r="G66" s="72"/>
@@ -7964,11 +7986,11 @@
       <c r="CU66" s="83"/>
       <c r="CV66" s="84"/>
     </row>
-    <row r="67" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B67" s="33"/>
       <c r="C67" s="34"/>
       <c r="D67" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E67" s="56"/>
       <c r="F67" s="57"/>
@@ -8067,10 +8089,10 @@
       <c r="CU67" s="4"/>
       <c r="CV67" s="10"/>
     </row>
-    <row r="68" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B68" s="33"/>
       <c r="C68" s="32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>25</v>
@@ -8172,7 +8194,7 @@
       <c r="CU68" s="4"/>
       <c r="CV68" s="10"/>
     </row>
-    <row r="69" spans="2:100" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:100" x14ac:dyDescent="0.25">
       <c r="B69" s="34"/>
       <c r="C69" s="34"/>
       <c r="D69" s="22" t="s">
@@ -8277,17 +8299,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="B1:AZ1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E19:F22"/>
     <mergeCell ref="E24:F28"/>
     <mergeCell ref="E29:F34"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="E40:F44"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="B1:AZ1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/temp.xlsx
+++ b/schedule/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9231DF-402E-4524-A128-80449317CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CAE9E0-F0BF-4591-89F2-6BB196163D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,7 +287,7 @@
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
   <si>
-    <t>2시간</t>
+    <t>5시간</t>
     <phoneticPr fontId="25" type="noConversion"/>
   </si>
 </sst>
@@ -1628,7 +1628,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1953,6 +1953,24 @@
     <xf numFmtId="0" fontId="18" fillId="39" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1983,22 +2001,7 @@
     <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2703,8 +2706,8 @@
   <sheetPr codeName="개발일정"/>
   <dimension ref="A1:IV69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O62" sqref="O62"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2722,77 +2725,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="114" t="s">
+      <c r="B1" s="120" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="114"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="114"/>
-      <c r="J1" s="114"/>
-      <c r="K1" s="114"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="114"/>
-      <c r="Q1" s="114"/>
-      <c r="R1" s="114"/>
-      <c r="S1" s="114"/>
-      <c r="T1" s="114"/>
-      <c r="U1" s="114"/>
-      <c r="V1" s="114"/>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="114"/>
-      <c r="AD1" s="114"/>
-      <c r="AE1" s="114"/>
-      <c r="AF1" s="114"/>
-      <c r="AG1" s="114"/>
-      <c r="AH1" s="114"/>
-      <c r="AI1" s="114"/>
-      <c r="AJ1" s="114"/>
-      <c r="AK1" s="114"/>
-      <c r="AL1" s="114"/>
-      <c r="AM1" s="114"/>
-      <c r="AN1" s="114"/>
-      <c r="AO1" s="114"/>
-      <c r="AP1" s="114"/>
-      <c r="AQ1" s="114"/>
-      <c r="AR1" s="114"/>
-      <c r="AS1" s="114"/>
-      <c r="AT1" s="114"/>
-      <c r="AU1" s="114"/>
-      <c r="AV1" s="114"/>
-      <c r="AW1" s="114"/>
-      <c r="AX1" s="114"/>
-      <c r="AY1" s="114"/>
-      <c r="AZ1" s="114"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
+      <c r="Z1" s="120"/>
+      <c r="AA1" s="120"/>
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="120"/>
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="120"/>
+      <c r="AG1" s="120"/>
+      <c r="AH1" s="120"/>
+      <c r="AI1" s="120"/>
+      <c r="AJ1" s="120"/>
+      <c r="AK1" s="120"/>
+      <c r="AL1" s="120"/>
+      <c r="AM1" s="120"/>
+      <c r="AN1" s="120"/>
+      <c r="AO1" s="120"/>
+      <c r="AP1" s="120"/>
+      <c r="AQ1" s="120"/>
+      <c r="AR1" s="120"/>
+      <c r="AS1" s="120"/>
+      <c r="AT1" s="120"/>
+      <c r="AU1" s="120"/>
+      <c r="AV1" s="120"/>
+      <c r="AW1" s="120"/>
+      <c r="AX1" s="120"/>
+      <c r="AY1" s="120"/>
+      <c r="AZ1" s="120"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="115" t="s">
+      <c r="D3" s="121" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="108" t="s">
+      <c r="E3" s="114" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="109"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="69" t="s">
         <v>52</v>
       </c>
@@ -2847,11 +2850,11 @@
       <c r="AZ3" s="48"/>
     </row>
     <row r="4" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="116"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="110"/>
-      <c r="F4" s="111"/>
+      <c r="B4" s="122"/>
+      <c r="C4" s="122"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="117"/>
       <c r="G4" s="70"/>
       <c r="H4" s="63"/>
       <c r="I4" s="49"/>
@@ -2900,11 +2903,11 @@
       <c r="AZ4" s="50"/>
     </row>
     <row r="5" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="117"/>
-      <c r="C5" s="117"/>
-      <c r="D5" s="117"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="113"/>
+      <c r="B5" s="123"/>
+      <c r="C5" s="123"/>
+      <c r="D5" s="123"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="119"/>
       <c r="G5" s="71"/>
       <c r="H5" s="64"/>
       <c r="I5" s="49"/>
@@ -3809,10 +3812,10 @@
       <c r="D19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="119" t="s">
+      <c r="E19" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="119"/>
+      <c r="F19" s="111"/>
       <c r="G19" s="61">
         <v>100</v>
       </c>
@@ -3920,8 +3923,8 @@
       <c r="D20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="119"/>
-      <c r="F20" s="119"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
       <c r="G20" s="60">
         <v>100</v>
       </c>
@@ -4025,8 +4028,8 @@
       <c r="D21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
       <c r="G21" s="60"/>
       <c r="H21" s="104">
         <v>0.27777777777777779</v>
@@ -4130,8 +4133,8 @@
       <c r="D22" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="119"/>
-      <c r="F22" s="119"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
       <c r="G22" s="60">
         <v>80</v>
       </c>
@@ -4338,10 +4341,10 @@
       <c r="D24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="120" t="s">
+      <c r="E24" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="120"/>
+      <c r="F24" s="112"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
       <c r="I24" s="77"/>
@@ -4443,8 +4446,8 @@
       <c r="D25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="120"/>
-      <c r="F25" s="120"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="77"/>
@@ -4546,8 +4549,8 @@
       <c r="D26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="112"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="77"/>
@@ -4649,8 +4652,8 @@
       <c r="D27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="120"/>
-      <c r="F27" s="120"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="112"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
       <c r="I27" s="77"/>
@@ -4752,8 +4755,8 @@
       <c r="D28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="120"/>
-      <c r="F28" s="120"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
       <c r="I28" s="77"/>
@@ -4857,10 +4860,10 @@
       <c r="D29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="119" t="s">
+      <c r="E29" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="119"/>
+      <c r="F29" s="111"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
       <c r="I29" s="77"/>
@@ -4962,8 +4965,8 @@
       <c r="D30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="119"/>
-      <c r="F30" s="119"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
       <c r="I30" s="77"/>
@@ -5065,8 +5068,8 @@
       <c r="D31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="119"/>
-      <c r="F31" s="119"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="77"/>
@@ -5168,8 +5171,8 @@
       <c r="D32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="119"/>
-      <c r="F32" s="119"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="77"/>
@@ -5271,8 +5274,8 @@
       <c r="D33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
       <c r="I33" s="77"/>
@@ -5374,8 +5377,8 @@
       <c r="D34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
       <c r="I34" s="77"/>
@@ -5580,10 +5583,10 @@
       <c r="D36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="120" t="s">
+      <c r="E36" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="120"/>
+      <c r="F36" s="112"/>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
       <c r="I36" s="80"/>
@@ -5685,8 +5688,8 @@
       <c r="D37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="120"/>
-      <c r="F37" s="120"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="112"/>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
       <c r="I37" s="80"/>
@@ -5788,8 +5791,8 @@
       <c r="D38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="120"/>
-      <c r="F38" s="120"/>
+      <c r="E38" s="112"/>
+      <c r="F38" s="112"/>
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
       <c r="I38" s="80"/>
@@ -5891,8 +5894,8 @@
       <c r="D39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="120"/>
-      <c r="F39" s="120"/>
+      <c r="E39" s="112"/>
+      <c r="F39" s="112"/>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
       <c r="I39" s="80"/>
@@ -5996,10 +5999,10 @@
       <c r="D40" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="121" t="s">
+      <c r="E40" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="121"/>
+      <c r="F40" s="113"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60"/>
       <c r="I40" s="80"/>
@@ -6101,8 +6104,8 @@
       <c r="D41" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="121"/>
-      <c r="F41" s="121"/>
+      <c r="E41" s="113"/>
+      <c r="F41" s="113"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
       <c r="I41" s="80"/>
@@ -6204,8 +6207,8 @@
       <c r="D42" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="113"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
       <c r="I42" s="92"/>
@@ -6307,8 +6310,8 @@
       <c r="D43" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="121"/>
-      <c r="F43" s="121"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="92"/>
@@ -6410,8 +6413,8 @@
       <c r="D44" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="121"/>
-      <c r="F44" s="121"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="92"/>
@@ -6515,10 +6518,10 @@
       <c r="D45" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="118" t="s">
+      <c r="E45" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="118"/>
+      <c r="F45" s="110"/>
       <c r="G45" s="60"/>
       <c r="H45" s="60"/>
       <c r="I45" s="81"/>
@@ -6846,19 +6849,19 @@
       <c r="E56" s="56"/>
       <c r="F56" s="57"/>
       <c r="G56" s="73">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H56" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="I56" s="123"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="122"/>
-      <c r="M56" s="122"/>
-      <c r="N56" s="122"/>
-      <c r="O56" s="122"/>
-      <c r="P56" s="122"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="124"/>
+      <c r="K56" s="124"/>
+      <c r="L56" s="108"/>
+      <c r="M56" s="108"/>
+      <c r="N56" s="108"/>
+      <c r="O56" s="108"/>
+      <c r="P56" s="108"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="4"/>
@@ -6953,7 +6956,7 @@
       <c r="E57" s="58"/>
       <c r="F57" s="59"/>
       <c r="G57" s="73">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="H57" s="78" t="s">
         <v>83</v>
@@ -8299,17 +8302,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="B1:AZ1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E19:F22"/>
     <mergeCell ref="E24:F28"/>
     <mergeCell ref="E29:F34"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="E40:F44"/>
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="B1:AZ1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>

--- a/schedule/temp.xlsx
+++ b/schedule/temp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erfrr\Desktop\Senior_Project\Avoid-The-Boss\schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57CAE9E0-F0BF-4591-89F2-6BB196163D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED603742-E753-4EBD-8B0E-B27D5D41AFA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1959,6 +1959,39 @@
     <xf numFmtId="0" fontId="19" fillId="37" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1970,39 +2003,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="83">
@@ -2707,7 +2707,7 @@
   <dimension ref="A1:IV69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="C49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2725,77 +2725,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="117" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
-      <c r="S1" s="120"/>
-      <c r="T1" s="120"/>
-      <c r="U1" s="120"/>
-      <c r="V1" s="120"/>
-      <c r="W1" s="120"/>
-      <c r="X1" s="120"/>
-      <c r="Y1" s="120"/>
-      <c r="Z1" s="120"/>
-      <c r="AA1" s="120"/>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="120"/>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="120"/>
-      <c r="AG1" s="120"/>
-      <c r="AH1" s="120"/>
-      <c r="AI1" s="120"/>
-      <c r="AJ1" s="120"/>
-      <c r="AK1" s="120"/>
-      <c r="AL1" s="120"/>
-      <c r="AM1" s="120"/>
-      <c r="AN1" s="120"/>
-      <c r="AO1" s="120"/>
-      <c r="AP1" s="120"/>
-      <c r="AQ1" s="120"/>
-      <c r="AR1" s="120"/>
-      <c r="AS1" s="120"/>
-      <c r="AT1" s="120"/>
-      <c r="AU1" s="120"/>
-      <c r="AV1" s="120"/>
-      <c r="AW1" s="120"/>
-      <c r="AX1" s="120"/>
-      <c r="AY1" s="120"/>
-      <c r="AZ1" s="120"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
+      <c r="AA1" s="117"/>
+      <c r="AB1" s="117"/>
+      <c r="AC1" s="117"/>
+      <c r="AD1" s="117"/>
+      <c r="AE1" s="117"/>
+      <c r="AF1" s="117"/>
+      <c r="AG1" s="117"/>
+      <c r="AH1" s="117"/>
+      <c r="AI1" s="117"/>
+      <c r="AJ1" s="117"/>
+      <c r="AK1" s="117"/>
+      <c r="AL1" s="117"/>
+      <c r="AM1" s="117"/>
+      <c r="AN1" s="117"/>
+      <c r="AO1" s="117"/>
+      <c r="AP1" s="117"/>
+      <c r="AQ1" s="117"/>
+      <c r="AR1" s="117"/>
+      <c r="AS1" s="117"/>
+      <c r="AT1" s="117"/>
+      <c r="AU1" s="117"/>
+      <c r="AV1" s="117"/>
+      <c r="AW1" s="117"/>
+      <c r="AX1" s="117"/>
+      <c r="AY1" s="117"/>
+      <c r="AZ1" s="117"/>
     </row>
     <row r="2" spans="2:100" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AZ2" s="2"/>
     </row>
     <row r="3" spans="2:100" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="118" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="121" t="s">
+      <c r="C3" s="118" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="121" t="s">
+      <c r="D3" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="115"/>
+      <c r="F3" s="112"/>
       <c r="G3" s="69" t="s">
         <v>52</v>
       </c>
@@ -2850,11 +2850,11 @@
       <c r="AZ3" s="48"/>
     </row>
     <row r="4" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="117"/>
+      <c r="B4" s="119"/>
+      <c r="C4" s="119"/>
+      <c r="D4" s="119"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="70"/>
       <c r="H4" s="63"/>
       <c r="I4" s="49"/>
@@ -2903,11 +2903,11 @@
       <c r="AZ4" s="50"/>
     </row>
     <row r="5" spans="2:100" s="3" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="116"/>
       <c r="G5" s="71"/>
       <c r="H5" s="64"/>
       <c r="I5" s="49"/>
@@ -3812,10 +3812,10 @@
       <c r="D19" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="111" t="s">
+      <c r="E19" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="111"/>
+      <c r="F19" s="122"/>
       <c r="G19" s="61">
         <v>100</v>
       </c>
@@ -3923,8 +3923,8 @@
       <c r="D20" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
       <c r="G20" s="60">
         <v>100</v>
       </c>
@@ -4028,8 +4028,8 @@
       <c r="D21" s="75" t="s">
         <v>72</v>
       </c>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
       <c r="G21" s="60"/>
       <c r="H21" s="104">
         <v>0.27777777777777779</v>
@@ -4133,8 +4133,8 @@
       <c r="D22" s="75" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="111"/>
-      <c r="F22" s="111"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
       <c r="G22" s="60">
         <v>80</v>
       </c>
@@ -4341,10 +4341,10 @@
       <c r="D24" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="112" t="s">
+      <c r="E24" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="F24" s="112"/>
+      <c r="F24" s="123"/>
       <c r="G24" s="60"/>
       <c r="H24" s="60"/>
       <c r="I24" s="77"/>
@@ -4446,8 +4446,8 @@
       <c r="D25" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
+      <c r="E25" s="123"/>
+      <c r="F25" s="123"/>
       <c r="G25" s="60"/>
       <c r="H25" s="60"/>
       <c r="I25" s="77"/>
@@ -4549,8 +4549,8 @@
       <c r="D26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="112"/>
-      <c r="F26" s="112"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
       <c r="G26" s="60"/>
       <c r="H26" s="60"/>
       <c r="I26" s="77"/>
@@ -4652,8 +4652,8 @@
       <c r="D27" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="112"/>
-      <c r="F27" s="112"/>
+      <c r="E27" s="123"/>
+      <c r="F27" s="123"/>
       <c r="G27" s="60"/>
       <c r="H27" s="60"/>
       <c r="I27" s="77"/>
@@ -4755,8 +4755,8 @@
       <c r="D28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="112"/>
-      <c r="F28" s="112"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
       <c r="G28" s="60"/>
       <c r="H28" s="60"/>
       <c r="I28" s="77"/>
@@ -4860,10 +4860,10 @@
       <c r="D29" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="111" t="s">
+      <c r="E29" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="111"/>
+      <c r="F29" s="122"/>
       <c r="G29" s="60"/>
       <c r="H29" s="60"/>
       <c r="I29" s="77"/>
@@ -4965,8 +4965,8 @@
       <c r="D30" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
       <c r="G30" s="60"/>
       <c r="H30" s="60"/>
       <c r="I30" s="77"/>
@@ -5068,8 +5068,8 @@
       <c r="D31" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="111"/>
-      <c r="F31" s="111"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
       <c r="G31" s="60"/>
       <c r="H31" s="60"/>
       <c r="I31" s="77"/>
@@ -5171,8 +5171,8 @@
       <c r="D32" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
       <c r="G32" s="60"/>
       <c r="H32" s="60"/>
       <c r="I32" s="77"/>
@@ -5274,8 +5274,8 @@
       <c r="D33" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
+      <c r="E33" s="122"/>
+      <c r="F33" s="122"/>
       <c r="G33" s="60"/>
       <c r="H33" s="60"/>
       <c r="I33" s="77"/>
@@ -5377,8 +5377,8 @@
       <c r="D34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
+      <c r="E34" s="122"/>
+      <c r="F34" s="122"/>
       <c r="G34" s="60"/>
       <c r="H34" s="60"/>
       <c r="I34" s="77"/>
@@ -5583,10 +5583,10 @@
       <c r="D36" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="F36" s="112"/>
+      <c r="F36" s="123"/>
       <c r="G36" s="60"/>
       <c r="H36" s="60"/>
       <c r="I36" s="80"/>
@@ -5688,8 +5688,8 @@
       <c r="D37" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="112"/>
-      <c r="F37" s="112"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
       <c r="G37" s="60"/>
       <c r="H37" s="60"/>
       <c r="I37" s="80"/>
@@ -5791,8 +5791,8 @@
       <c r="D38" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="112"/>
-      <c r="F38" s="112"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
       <c r="G38" s="60"/>
       <c r="H38" s="60"/>
       <c r="I38" s="80"/>
@@ -5894,8 +5894,8 @@
       <c r="D39" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="E39" s="112"/>
-      <c r="F39" s="112"/>
+      <c r="E39" s="123"/>
+      <c r="F39" s="123"/>
       <c r="G39" s="60"/>
       <c r="H39" s="60"/>
       <c r="I39" s="80"/>
@@ -5999,10 +5999,10 @@
       <c r="D40" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="E40" s="113" t="s">
+      <c r="E40" s="124" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="113"/>
+      <c r="F40" s="124"/>
       <c r="G40" s="60"/>
       <c r="H40" s="60"/>
       <c r="I40" s="80"/>
@@ -6104,8 +6104,8 @@
       <c r="D41" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="113"/>
-      <c r="F41" s="113"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
       <c r="G41" s="60"/>
       <c r="H41" s="60"/>
       <c r="I41" s="80"/>
@@ -6207,8 +6207,8 @@
       <c r="D42" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
       <c r="G42" s="60"/>
       <c r="H42" s="60"/>
       <c r="I42" s="92"/>
@@ -6310,8 +6310,8 @@
       <c r="D43" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
       <c r="G43" s="60"/>
       <c r="H43" s="60"/>
       <c r="I43" s="92"/>
@@ -6413,8 +6413,8 @@
       <c r="D44" s="91" t="s">
         <v>60</v>
       </c>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
       <c r="G44" s="60"/>
       <c r="H44" s="60"/>
       <c r="I44" s="92"/>
@@ -6518,10 +6518,10 @@
       <c r="D45" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="110" t="s">
+      <c r="E45" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="F45" s="110"/>
+      <c r="F45" s="121"/>
       <c r="G45" s="60"/>
       <c r="H45" s="60"/>
       <c r="I45" s="81"/>
@@ -6855,8 +6855,8 @@
         <v>85</v>
       </c>
       <c r="I56" s="109"/>
-      <c r="J56" s="124"/>
-      <c r="K56" s="124"/>
+      <c r="J56" s="110"/>
+      <c r="K56" s="110"/>
       <c r="L56" s="108"/>
       <c r="M56" s="108"/>
       <c r="N56" s="108"/>
@@ -6956,7 +6956,7 @@
       <c r="E57" s="58"/>
       <c r="F57" s="59"/>
       <c r="G57" s="73">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="H57" s="78" t="s">
         <v>83</v>
@@ -8302,17 +8302,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="E3:F5"/>
-    <mergeCell ref="B1:AZ1"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:D5"/>
     <mergeCell ref="E45:F45"/>
     <mergeCell ref="E19:F22"/>
     <mergeCell ref="E24:F28"/>
     <mergeCell ref="E29:F34"/>
     <mergeCell ref="E36:F39"/>
     <mergeCell ref="E40:F44"/>
+    <mergeCell ref="E3:F5"/>
+    <mergeCell ref="B1:AZ1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D3:D5"/>
   </mergeCells>
   <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.31000000238418579" right="0.19666667282581329" top="0.20000000298023224" bottom="0.19666667282581329" header="0.17000000178813934" footer="0.15986111760139465"/>
